--- a/BackTest/2019-10-31 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-31 BackTest ETZ.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>3.100000000000001</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-40.0000000000001</v>
+      </c>
       <c r="L12" t="n">
         <v>33.8</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>3.100000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-40.0000000000001</v>
+      </c>
       <c r="L13" t="n">
         <v>33.67999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3.300000000000004</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-21.42857142857145</v>
+      </c>
       <c r="L14" t="n">
         <v>33.57999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3.300000000000004</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-35.99999999999984</v>
+      </c>
       <c r="L15" t="n">
         <v>33.52</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3.600000000000009</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-30.43478260869563</v>
+      </c>
       <c r="L16" t="n">
         <v>33.39999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3.900000000000006</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-23.80952380952371</v>
+      </c>
       <c r="L17" t="n">
         <v>33.3</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>4.600000000000009</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>24.99999999999993</v>
+      </c>
       <c r="L18" t="n">
         <v>33.31999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>5.000000000000014</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>3.70370370370347</v>
+      </c>
       <c r="L19" t="n">
         <v>33.33999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>5.20000000000001</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>7.692307692307776</v>
+      </c>
       <c r="L20" t="n">
         <v>33.33</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>5.500000000000014</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-24.99999999999993</v>
+      </c>
       <c r="L21" t="n">
         <v>33.32</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>5.800000000000011</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333316</v>
+      </c>
       <c r="L22" t="n">
         <v>33.23</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>5.800000000000011</v>
       </c>
       <c r="K23" t="n">
-        <v>-36.84210526315785</v>
+        <v>-43.99999999999994</v>
       </c>
       <c r="L23" t="n">
         <v>33.14</v>
@@ -1466,7 +1488,7 @@
         <v>6.400000000000013</v>
       </c>
       <c r="K24" t="n">
-        <v>-23.80952380952377</v>
+        <v>-16.12903225806447</v>
       </c>
       <c r="L24" t="n">
         <v>33.09</v>
@@ -1515,7 +1537,7 @@
         <v>7.200000000000017</v>
       </c>
       <c r="K25" t="n">
-        <v>-28.35820895522389</v>
+        <v>-27.77777777777771</v>
       </c>
       <c r="L25" t="n">
         <v>32.96</v>
@@ -1564,7 +1586,7 @@
         <v>8.000000000000021</v>
       </c>
       <c r="K26" t="n">
-        <v>-19.44444444444436</v>
+        <v>2.439024390243928</v>
       </c>
       <c r="L26" t="n">
         <v>32.94</v>
@@ -1613,7 +1635,7 @@
         <v>8.000000000000021</v>
       </c>
       <c r="K27" t="n">
-        <v>-13.43283582089545</v>
+        <v>-17.64705882352939</v>
       </c>
       <c r="L27" t="n">
         <v>32.95</v>
@@ -1662,7 +1684,7 @@
         <v>8.200000000000024</v>
       </c>
       <c r="K28" t="n">
-        <v>-9.374999999999984</v>
+        <v>-12.49999999999992</v>
       </c>
       <c r="L28" t="n">
         <v>32.87</v>
@@ -1711,7 +1733,7 @@
         <v>8.600000000000023</v>
       </c>
       <c r="K29" t="n">
-        <v>-9.374999999999984</v>
+        <v>-17.64705882352939</v>
       </c>
       <c r="L29" t="n">
         <v>32.79000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>9.200000000000024</v>
       </c>
       <c r="K30" t="n">
-        <v>-18.84057971014492</v>
+        <v>-24.32432432432422</v>
       </c>
       <c r="L30" t="n">
         <v>32.67</v>
@@ -1809,7 +1831,7 @@
         <v>9.500000000000028</v>
       </c>
       <c r="K31" t="n">
-        <v>-10.14492753623178</v>
+        <v>-8.108108108107993</v>
       </c>
       <c r="L31" t="n">
         <v>32.61</v>
@@ -1860,7 +1882,7 @@
         <v>9.500000000000028</v>
       </c>
       <c r="K32" t="n">
-        <v>-18.74999999999985</v>
+        <v>-8.108108108107993</v>
       </c>
       <c r="L32" t="n">
         <v>32.58</v>
@@ -1911,7 +1933,7 @@
         <v>9.600000000000023</v>
       </c>
       <c r="K33" t="n">
-        <v>-16.92307692307689</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L33" t="n">
         <v>32.56</v>
@@ -1962,7 +1984,7 @@
         <v>9.600000000000023</v>
       </c>
       <c r="K34" t="n">
-        <v>-20.63492063492064</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>32.48</v>
@@ -2013,7 +2035,7 @@
         <v>10.00000000000003</v>
       </c>
       <c r="K35" t="n">
-        <v>-13.43283582089545</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L35" t="n">
         <v>32.52</v>
@@ -2064,7 +2086,7 @@
         <v>10.20000000000003</v>
       </c>
       <c r="K36" t="n">
-        <v>-12.12121212121204</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L36" t="n">
         <v>32.45999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>10.60000000000003</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.492537313432852</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>32.43999999999998</v>
@@ -2166,7 +2188,7 @@
         <v>11.20000000000003</v>
       </c>
       <c r="K38" t="n">
-        <v>-21.21212121212123</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L38" t="n">
         <v>32.37999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>11.40000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>-12.49999999999992</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L39" t="n">
         <v>32.37999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>11.60000000000004</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.50000000000001</v>
+        <v>4.761904761904471</v>
       </c>
       <c r="L40" t="n">
         <v>32.41999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>11.70000000000004</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.451612903225758</v>
+        <v>9.090909090908857</v>
       </c>
       <c r="L41" t="n">
         <v>32.43999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>11.90000000000004</v>
       </c>
       <c r="K42" t="n">
-        <v>1.639344262295097</v>
+        <v>13.04347826086964</v>
       </c>
       <c r="L42" t="n">
         <v>32.48</v>
@@ -2421,7 +2443,7 @@
         <v>12.20000000000005</v>
       </c>
       <c r="K43" t="n">
-        <v>-3.125000000000028</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>32.48</v>
@@ -2472,7 +2494,7 @@
         <v>12.60000000000005</v>
       </c>
       <c r="K44" t="n">
-        <v>-6.451612903225744</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>32.52</v>
@@ -2523,7 +2545,7 @@
         <v>13.00000000000006</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>-7.142857142857179</v>
       </c>
       <c r="L45" t="n">
         <v>32.48</v>
@@ -2574,7 +2596,7 @@
         <v>13.20000000000006</v>
       </c>
       <c r="K46" t="n">
-        <v>-11.53846153846148</v>
+        <v>-15.38461538461515</v>
       </c>
       <c r="L46" t="n">
         <v>32.48</v>
@@ -2625,7 +2647,7 @@
         <v>13.30000000000006</v>
       </c>
       <c r="K47" t="n">
-        <v>-13.20754716981128</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L47" t="n">
         <v>32.42999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>13.50000000000006</v>
       </c>
       <c r="K48" t="n">
-        <v>-13.20754716981116</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L48" t="n">
         <v>32.41999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>13.80000000000005</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L49" t="n">
         <v>32.41999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>13.80000000000005</v>
       </c>
       <c r="K50" t="n">
-        <v>13.04347826086951</v>
+        <v>4.761904761904794</v>
       </c>
       <c r="L50" t="n">
         <v>32.43999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>13.90000000000006</v>
       </c>
       <c r="K51" t="n">
-        <v>9.090909090909003</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>32.45999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>13.90000000000006</v>
       </c>
       <c r="K52" t="n">
-        <v>9.090909090909003</v>
+        <v>17.64705882352956</v>
       </c>
       <c r="L52" t="n">
         <v>32.45999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>14.60000000000006</v>
       </c>
       <c r="K53" t="n">
-        <v>-7.999999999999914</v>
+        <v>-40.00000000000007</v>
       </c>
       <c r="L53" t="n">
         <v>32.41999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>14.70000000000006</v>
       </c>
       <c r="K54" t="n">
-        <v>-5.882352941176372</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L54" t="n">
         <v>32.34999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>14.80000000000006</v>
       </c>
       <c r="K55" t="n">
-        <v>-16.66666666666664</v>
+        <v>-37.50000000000006</v>
       </c>
       <c r="L55" t="n">
         <v>32.30999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>15.00000000000006</v>
       </c>
       <c r="K56" t="n">
-        <v>-8.333333333333247</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L56" t="n">
         <v>32.27</v>
@@ -3135,7 +3157,7 @@
         <v>15.00000000000006</v>
       </c>
       <c r="K57" t="n">
-        <v>-18.18181818181798</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L57" t="n">
         <v>32.23999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>15.30000000000006</v>
       </c>
       <c r="K58" t="n">
-        <v>2.439024390243919</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L58" t="n">
         <v>32.26</v>
@@ -3237,7 +3259,7 @@
         <v>15.50000000000006</v>
       </c>
       <c r="K59" t="n">
-        <v>-7.317073170731597</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L59" t="n">
         <v>32.23</v>
@@ -3288,7 +3310,7 @@
         <v>15.80000000000005</v>
       </c>
       <c r="K60" t="n">
-        <v>4.76190476190481</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L60" t="n">
         <v>32.23</v>
@@ -3339,7 +3361,7 @@
         <v>15.90000000000006</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L61" t="n">
         <v>32.20999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>16.00000000000006</v>
       </c>
       <c r="K62" t="n">
-        <v>-7.317073170731783</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L62" t="n">
         <v>32.17999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>16.10000000000005</v>
       </c>
       <c r="K63" t="n">
-        <v>-2.564102564102415</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L63" t="n">
         <v>32.20999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>16.10000000000005</v>
       </c>
       <c r="K64" t="n">
-        <v>-14.28571428571428</v>
+        <v>23.07692307692358</v>
       </c>
       <c r="L64" t="n">
         <v>32.22999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>16.30000000000005</v>
       </c>
       <c r="K65" t="n">
-        <v>-9.090909090909012</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L65" t="n">
         <v>32.23999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>16.50000000000006</v>
       </c>
       <c r="K66" t="n">
-        <v>-9.090909090909012</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L66" t="n">
         <v>32.24999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>16.50000000000006</v>
       </c>
       <c r="K67" t="n">
-        <v>-6.249999999999875</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L67" t="n">
         <v>32.25999999999998</v>
@@ -3696,7 +3718,7 @@
         <v>16.70000000000005</v>
       </c>
       <c r="K68" t="n">
-        <v>6.249999999999875</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L68" t="n">
         <v>32.25999999999998</v>
@@ -3747,7 +3769,7 @@
         <v>17.40000000000006</v>
       </c>
       <c r="K69" t="n">
-        <v>16.6666666666667</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L69" t="n">
         <v>32.34999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>17.40000000000006</v>
       </c>
       <c r="K70" t="n">
-        <v>16.6666666666667</v>
+        <v>46.66666666666686</v>
       </c>
       <c r="L70" t="n">
         <v>32.40999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>17.40000000000006</v>
       </c>
       <c r="K71" t="n">
-        <v>14.28571428571428</v>
+        <v>57.14285714285751</v>
       </c>
       <c r="L71" t="n">
         <v>32.48</v>
@@ -3900,7 +3922,7 @@
         <v>17.50000000000006</v>
       </c>
       <c r="K72" t="n">
-        <v>16.6666666666667</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L72" t="n">
         <v>32.56999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>17.90000000000006</v>
       </c>
       <c r="K73" t="n">
-        <v>27.27272727272719</v>
+        <v>33.33333333333281</v>
       </c>
       <c r="L73" t="n">
         <v>32.63</v>
@@ -4002,7 +4024,7 @@
         <v>18.20000000000007</v>
       </c>
       <c r="K74" t="n">
-        <v>31.42857142857141</v>
+        <v>57.89473684210494</v>
       </c>
       <c r="L74" t="n">
         <v>32.72</v>
@@ -4053,7 +4075,7 @@
         <v>18.60000000000007</v>
       </c>
       <c r="K75" t="n">
-        <v>21.05263157894746</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L75" t="n">
         <v>32.79</v>
@@ -4104,7 +4126,7 @@
         <v>19.10000000000007</v>
       </c>
       <c r="K76" t="n">
-        <v>2.439024390243936</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>32.79</v>
@@ -4155,7 +4177,7 @@
         <v>19.20000000000006</v>
       </c>
       <c r="K77" t="n">
-        <v>4.761904761904665</v>
+        <v>-4.000000000000045</v>
       </c>
       <c r="L77" t="n">
         <v>32.8</v>
@@ -4206,7 +4228,7 @@
         <v>19.40000000000006</v>
       </c>
       <c r="K78" t="n">
-        <v>2.439024390243936</v>
+        <v>-29.99999999999996</v>
       </c>
       <c r="L78" t="n">
         <v>32.81</v>
@@ -4257,7 +4279,7 @@
         <v>19.60000000000007</v>
       </c>
       <c r="K79" t="n">
-        <v>12.19512195121949</v>
+        <v>-18.18181818181803</v>
       </c>
       <c r="L79" t="n">
         <v>32.77</v>
@@ -4308,7 +4330,7 @@
         <v>19.70000000000007</v>
       </c>
       <c r="K80" t="n">
-        <v>2.564102564102592</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L80" t="n">
         <v>32.72</v>
@@ -4359,7 +4381,7 @@
         <v>19.80000000000007</v>
       </c>
       <c r="K81" t="n">
-        <v>7.692307692307776</v>
+        <v>-21.7391304347825</v>
       </c>
       <c r="L81" t="n">
         <v>32.67999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>19.80000000000007</v>
       </c>
       <c r="K82" t="n">
-        <v>10.5263157894738</v>
+        <v>-5.263157894736527</v>
       </c>
       <c r="L82" t="n">
         <v>32.63</v>
@@ -4461,7 +4483,7 @@
         <v>19.90000000000006</v>
       </c>
       <c r="K83" t="n">
-        <v>15.78947368421033</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L83" t="n">
         <v>32.63</v>
@@ -4512,7 +4534,7 @@
         <v>20.00000000000006</v>
       </c>
       <c r="K84" t="n">
-        <v>17.94871794871778</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L84" t="n">
         <v>32.60999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>20.30000000000006</v>
       </c>
       <c r="K85" t="n">
-        <v>15.00000000000001</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L85" t="n">
         <v>32.59999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>20.60000000000006</v>
       </c>
       <c r="K86" t="n">
-        <v>17.07317073170721</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L86" t="n">
         <v>32.66999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>20.90000000000006</v>
       </c>
       <c r="K87" t="n">
-        <v>9.090909090909062</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L87" t="n">
         <v>32.7</v>
@@ -4716,7 +4738,7 @@
         <v>20.90000000000006</v>
       </c>
       <c r="K88" t="n">
-        <v>4.761904761904826</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L88" t="n">
         <v>32.70999999999999</v>
@@ -4767,7 +4789,7 @@
         <v>21.20000000000005</v>
       </c>
       <c r="K89" t="n">
-        <v>-5.263157894736921</v>
+        <v>20</v>
       </c>
       <c r="L89" t="n">
         <v>32.73</v>
@@ -4818,7 +4840,7 @@
         <v>21.20000000000005</v>
       </c>
       <c r="K90" t="n">
-        <v>-5.263157894736921</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L90" t="n">
         <v>32.75999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>21.70000000000005</v>
       </c>
       <c r="K91" t="n">
-        <v>-16.27906976744194</v>
+        <v>-15.78947368421088</v>
       </c>
       <c r="L91" t="n">
         <v>32.72999999999999</v>
@@ -4920,7 +4942,7 @@
         <v>21.70000000000005</v>
       </c>
       <c r="K92" t="n">
-        <v>-19.04761904761917</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L92" t="n">
         <v>32.69999999999999</v>
@@ -4971,7 +4993,7 @@
         <v>21.70000000000005</v>
       </c>
       <c r="K93" t="n">
-        <v>-10.52631578947367</v>
+        <v>-29.41176470588255</v>
       </c>
       <c r="L93" t="n">
         <v>32.65999999999998</v>
@@ -5022,7 +5044,7 @@
         <v>22.20000000000005</v>
       </c>
       <c r="K94" t="n">
-        <v>-5.000000000000089</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L94" t="n">
         <v>32.65999999999998</v>
@@ -5073,7 +5095,7 @@
         <v>22.70000000000005</v>
       </c>
       <c r="K95" t="n">
-        <v>-7.317073170731835</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L95" t="n">
         <v>32.63999999999998</v>
@@ -5124,7 +5146,7 @@
         <v>22.80000000000005</v>
       </c>
       <c r="K96" t="n">
-        <v>8.108108108108055</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L96" t="n">
         <v>32.59999999999998</v>
@@ -5175,7 +5197,7 @@
         <v>22.90000000000006</v>
       </c>
       <c r="K97" t="n">
-        <v>2.702702702702744</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L97" t="n">
         <v>32.57999999999998</v>
@@ -5226,7 +5248,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K98" t="n">
-        <v>-5.555555555555643</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>32.54999999999998</v>
@@ -5277,7 +5299,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K99" t="n">
-        <v>-11.76470588235314</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>32.48999999999998</v>
@@ -5328,7 +5350,7 @@
         <v>23.40000000000006</v>
       </c>
       <c r="K100" t="n">
-        <v>2.702702702702744</v>
+        <v>17.64705882352956</v>
       </c>
       <c r="L100" t="n">
         <v>32.46999999999998</v>
@@ -5379,7 +5401,7 @@
         <v>23.50000000000006</v>
       </c>
       <c r="K101" t="n">
-        <v>2.702702702702557</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L101" t="n">
         <v>32.50999999999998</v>
@@ -5430,7 +5452,7 @@
         <v>23.60000000000005</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>15.78947368421076</v>
       </c>
       <c r="L102" t="n">
         <v>32.53999999999998</v>
@@ -5481,7 +5503,7 @@
         <v>23.60000000000005</v>
       </c>
       <c r="K103" t="n">
-        <v>-2.702702702702557</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L103" t="n">
         <v>32.56999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>23.60000000000005</v>
       </c>
       <c r="K104" t="n">
-        <v>-5.555555555555457</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L104" t="n">
         <v>32.54999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>24.10000000000005</v>
       </c>
       <c r="K105" t="n">
-        <v>-10.52631578947367</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L105" t="n">
         <v>32.52999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>24.40000000000006</v>
       </c>
       <c r="K106" t="n">
-        <v>-26.31578947368423</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>32.46999999999998</v>
@@ -5685,7 +5707,7 @@
         <v>24.40000000000006</v>
       </c>
       <c r="K107" t="n">
-        <v>-20.00000000000008</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L107" t="n">
         <v>32.41999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>24.60000000000006</v>
       </c>
       <c r="K108" t="n">
-        <v>-13.5135135135135</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L108" t="n">
         <v>32.39999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>25.10000000000006</v>
       </c>
       <c r="K109" t="n">
-        <v>-33.33333333333321</v>
+        <v>-64.70588235294143</v>
       </c>
       <c r="L109" t="n">
         <v>32.32999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>25.10000000000006</v>
       </c>
       <c r="K110" t="n">
-        <v>-33.33333333333321</v>
+        <v>-74.99999999999967</v>
       </c>
       <c r="L110" t="n">
         <v>32.21999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>25.20000000000006</v>
       </c>
       <c r="K111" t="n">
-        <v>-25.71428571428562</v>
+        <v>-74.99999999999977</v>
       </c>
       <c r="L111" t="n">
         <v>32.08999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>25.50000000000006</v>
       </c>
       <c r="K112" t="n">
-        <v>-31.57894736842097</v>
+        <v>-78.94736842105243</v>
       </c>
       <c r="L112" t="n">
         <v>31.93999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>25.60000000000006</v>
       </c>
       <c r="K113" t="n">
-        <v>-28.20512820512808</v>
+        <v>-69.99999999999973</v>
       </c>
       <c r="L113" t="n">
         <v>31.79999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>26.10000000000006</v>
       </c>
       <c r="K114" t="n">
-        <v>-28.20512820512808</v>
+        <v>-20</v>
       </c>
       <c r="L114" t="n">
         <v>31.71</v>
@@ -6093,7 +6115,7 @@
         <v>26.10000000000006</v>
       </c>
       <c r="K115" t="n">
-        <v>-17.6470588235293</v>
+        <v>-5.882352941176324</v>
       </c>
       <c r="L115" t="n">
         <v>31.67</v>
@@ -6144,7 +6166,7 @@
         <v>26.10000000000006</v>
       </c>
       <c r="K116" t="n">
-        <v>-21.21212121212114</v>
+        <v>-5.882352941176324</v>
       </c>
       <c r="L116" t="n">
         <v>31.66</v>
@@ -6195,7 +6217,7 @@
         <v>26.60000000000006</v>
       </c>
       <c r="K117" t="n">
-        <v>-29.72972972972962</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L117" t="n">
         <v>31.6</v>
@@ -6246,7 +6268,7 @@
         <v>27.30000000000006</v>
       </c>
       <c r="K118" t="n">
-        <v>-6.976744186046438</v>
+        <v>18.18181818181809</v>
       </c>
       <c r="L118" t="n">
         <v>31.59</v>
@@ -6297,7 +6319,7 @@
         <v>27.50000000000006</v>
       </c>
       <c r="K119" t="n">
-        <v>-2.222222222222093</v>
+        <v>25</v>
       </c>
       <c r="L119" t="n">
         <v>31.65</v>
@@ -6348,7 +6370,7 @@
         <v>28.50000000000007</v>
       </c>
       <c r="K120" t="n">
-        <v>-29.41176470588239</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L120" t="n">
         <v>31.61</v>
@@ -6399,7 +6421,7 @@
         <v>28.60000000000007</v>
       </c>
       <c r="K121" t="n">
-        <v>-33.33333333333319</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L121" t="n">
         <v>31.57</v>
@@ -6450,7 +6472,7 @@
         <v>29.10000000000007</v>
       </c>
       <c r="K122" t="n">
-        <v>-19.99999999999997</v>
+        <v>8.571428571428582</v>
       </c>
       <c r="L122" t="n">
         <v>31.61</v>
@@ -6501,7 +6523,7 @@
         <v>29.20000000000007</v>
       </c>
       <c r="K123" t="n">
-        <v>-21.42857142857142</v>
+        <v>-9.677419354838717</v>
       </c>
       <c r="L123" t="n">
         <v>31.63</v>
@@ -6552,7 +6574,7 @@
         <v>29.20000000000007</v>
       </c>
       <c r="K124" t="n">
-        <v>-21.42857142857142</v>
+        <v>-9.677419354838717</v>
       </c>
       <c r="L124" t="n">
         <v>31.6</v>
@@ -6603,7 +6625,7 @@
         <v>29.20000000000007</v>
       </c>
       <c r="K125" t="n">
-        <v>-13.72549019607844</v>
+        <v>-9.677419354838717</v>
       </c>
       <c r="L125" t="n">
         <v>31.57</v>
@@ -6654,7 +6676,7 @@
         <v>29.20000000000007</v>
       </c>
       <c r="K126" t="n">
-        <v>-8.333333333333284</v>
+        <v>7.69230769230765</v>
       </c>
       <c r="L126" t="n">
         <v>31.54</v>
@@ -6705,7 +6727,7 @@
         <v>29.20000000000007</v>
       </c>
       <c r="K127" t="n">
-        <v>-8.333333333333284</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L127" t="n">
         <v>31.56</v>
@@ -6756,7 +6778,7 @@
         <v>29.20000000000007</v>
       </c>
       <c r="K128" t="n">
-        <v>-13.04347826086957</v>
+        <v>-41.17647058823539</v>
       </c>
       <c r="L128" t="n">
         <v>31.51</v>
@@ -6807,7 +6829,7 @@
         <v>29.40000000000007</v>
       </c>
       <c r="K129" t="n">
-        <v>-6.976744186046516</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L129" t="n">
         <v>31.42</v>
@@ -6858,7 +6880,7 @@
         <v>29.50000000000007</v>
       </c>
       <c r="K130" t="n">
-        <v>-9.09090909090912</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L130" t="n">
         <v>31.42</v>
@@ -6909,7 +6931,7 @@
         <v>29.80000000000007</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L131" t="n">
         <v>31.46</v>
@@ -6960,7 +6982,7 @@
         <v>29.80000000000007</v>
       </c>
       <c r="K132" t="n">
-        <v>6.976744186046516</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>31.45</v>
@@ -7011,7 +7033,7 @@
         <v>29.80000000000007</v>
       </c>
       <c r="K133" t="n">
-        <v>4.761904761904738</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>31.45</v>
@@ -7062,7 +7084,7 @@
         <v>29.80000000000007</v>
       </c>
       <c r="K134" t="n">
-        <v>-8.108108108108112</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>31.45</v>
@@ -7113,7 +7135,7 @@
         <v>30.00000000000007</v>
       </c>
       <c r="K135" t="n">
-        <v>-12.8205128205128</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L135" t="n">
         <v>31.43</v>
@@ -7164,7 +7186,7 @@
         <v>30.10000000000007</v>
       </c>
       <c r="K136" t="n">
-        <v>-10.00000000000004</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L136" t="n">
         <v>31.41999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>30.10000000000007</v>
       </c>
       <c r="K137" t="n">
-        <v>2.857142857142793</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L137" t="n">
         <v>31.40999999999999</v>
@@ -7266,7 +7288,7 @@
         <v>30.20000000000006</v>
       </c>
       <c r="K138" t="n">
-        <v>-24.13793103448272</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>31.38999999999999</v>
@@ -7317,7 +7339,7 @@
         <v>30.40000000000006</v>
       </c>
       <c r="K139" t="n">
-        <v>-24.13793103448287</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L139" t="n">
         <v>31.40999999999999</v>
@@ -7368,7 +7390,7 @@
         <v>30.40000000000006</v>
       </c>
       <c r="K140" t="n">
-        <v>15.78947368421061</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>31.43999999999999</v>
@@ -7419,7 +7441,7 @@
         <v>30.60000000000006</v>
       </c>
       <c r="K141" t="n">
-        <v>9.999999999999982</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L141" t="n">
         <v>31.41999999999999</v>
@@ -7470,7 +7492,7 @@
         <v>30.70000000000006</v>
       </c>
       <c r="K142" t="n">
-        <v>-12.50000000000022</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L142" t="n">
         <v>31.40999999999999</v>
@@ -7521,7 +7543,7 @@
         <v>30.70000000000006</v>
       </c>
       <c r="K143" t="n">
-        <v>-6.666666666666793</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L143" t="n">
         <v>31.39999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>30.90000000000006</v>
       </c>
       <c r="K144" t="n">
-        <v>-17.64705882352953</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L144" t="n">
         <v>31.36999999999999</v>
@@ -7623,7 +7645,7 @@
         <v>31.30000000000006</v>
       </c>
       <c r="K145" t="n">
-        <v>-33.33333333333345</v>
+        <v>-50.00000000000014</v>
       </c>
       <c r="L145" t="n">
         <v>31.31999999999999</v>
@@ -7674,7 +7696,7 @@
         <v>31.30000000000006</v>
       </c>
       <c r="K146" t="n">
-        <v>-33.33333333333345</v>
+        <v>-50.00000000000014</v>
       </c>
       <c r="L146" t="n">
         <v>31.25999999999999</v>
@@ -7725,7 +7747,7 @@
         <v>31.30000000000006</v>
       </c>
       <c r="K147" t="n">
-        <v>-33.33333333333345</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L147" t="n">
         <v>31.2</v>
@@ -7776,7 +7798,7 @@
         <v>31.40000000000006</v>
       </c>
       <c r="K148" t="n">
-        <v>-36.36363636363652</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L148" t="n">
         <v>31.13999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>31.50000000000006</v>
       </c>
       <c r="K149" t="n">
-        <v>-23.80952380952387</v>
+        <v>-63.63636363636369</v>
       </c>
       <c r="L149" t="n">
         <v>31.06999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>31.90000000000006</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L150" t="n">
         <v>31.03999999999999</v>
@@ -7929,7 +7951,7 @@
         <v>32.40000000000006</v>
       </c>
       <c r="K151" t="n">
-        <v>-30.76923076923087</v>
+        <v>-41.17647058823518</v>
       </c>
       <c r="L151" t="n">
         <v>30.97999999999999</v>
@@ -7980,7 +8002,7 @@
         <v>32.80000000000007</v>
       </c>
       <c r="K152" t="n">
-        <v>-13.33333333333329</v>
+        <v>-14.28571428571409</v>
       </c>
       <c r="L152" t="n">
         <v>30.95</v>
@@ -8031,7 +8053,7 @@
         <v>32.90000000000006</v>
       </c>
       <c r="K153" t="n">
-        <v>-9.677419354838749</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>30.93</v>
@@ -8082,7 +8104,7 @@
         <v>33.10000000000007</v>
       </c>
       <c r="K154" t="n">
-        <v>-15.15151515151517</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L154" t="n">
         <v>30.91</v>
@@ -8133,7 +8155,7 @@
         <v>33.20000000000007</v>
       </c>
       <c r="K155" t="n">
-        <v>-6.24999999999998</v>
+        <v>15.78947368421049</v>
       </c>
       <c r="L155" t="n">
         <v>30.94</v>
@@ -8184,7 +8206,7 @@
         <v>33.40000000000007</v>
       </c>
       <c r="K156" t="n">
-        <v>-15.15151515151513</v>
+        <v>4.761904761904633</v>
       </c>
       <c r="L156" t="n">
         <v>30.95</v>
@@ -8235,7 +8257,7 @@
         <v>33.40000000000007</v>
       </c>
       <c r="K157" t="n">
-        <v>-15.15151515151513</v>
+        <v>9.999999999999911</v>
       </c>
       <c r="L157" t="n">
         <v>30.95999999999999</v>
@@ -8286,7 +8308,7 @@
         <v>33.40000000000007</v>
       </c>
       <c r="K158" t="n">
-        <v>-12.50000000000004</v>
+        <v>5.263157894736705</v>
       </c>
       <c r="L158" t="n">
         <v>30.97999999999999</v>
@@ -8337,7 +8359,7 @@
         <v>33.50000000000007</v>
       </c>
       <c r="K159" t="n">
-        <v>-22.58064516129024</v>
+        <v>-24.99999999999972</v>
       </c>
       <c r="L159" t="n">
         <v>30.97999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>33.50000000000007</v>
       </c>
       <c r="K160" t="n">
-        <v>-22.58064516129024</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L160" t="n">
         <v>30.93999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>33.60000000000007</v>
       </c>
       <c r="K161" t="n">
-        <v>-19.99999999999998</v>
+        <v>-50</v>
       </c>
       <c r="L161" t="n">
         <v>30.93999999999999</v>
@@ -8490,7 +8512,7 @@
         <v>33.70000000000007</v>
       </c>
       <c r="K162" t="n">
-        <v>-19.99999999999983</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L162" t="n">
         <v>30.90999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>33.70000000000007</v>
       </c>
       <c r="K163" t="n">
-        <v>-19.99999999999983</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L163" t="n">
         <v>30.86999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>33.80000000000008</v>
       </c>
       <c r="K164" t="n">
-        <v>-17.24137931034473</v>
+        <v>-66.66666666666607</v>
       </c>
       <c r="L164" t="n">
         <v>30.83999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>33.90000000000008</v>
       </c>
       <c r="K165" t="n">
-        <v>-7.692307692307608</v>
+        <v>-59.99999999999858</v>
       </c>
       <c r="L165" t="n">
         <v>30.78999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>34.00000000000007</v>
       </c>
       <c r="K166" t="n">
-        <v>-3.703703703703737</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L166" t="n">
         <v>30.76999999999999</v>
@@ -8745,7 +8767,7 @@
         <v>34.10000000000007</v>
       </c>
       <c r="K167" t="n">
-        <v>-7.142857142857098</v>
+        <v>-42.85714285714271</v>
       </c>
       <c r="L167" t="n">
         <v>30.74</v>
@@ -8796,7 +8818,7 @@
         <v>34.10000000000007</v>
       </c>
       <c r="K168" t="n">
-        <v>-3.703703703703616</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L168" t="n">
         <v>30.71</v>
@@ -8847,7 +8869,7 @@
         <v>34.30000000000007</v>
       </c>
       <c r="K169" t="n">
-        <v>-14.28571428571432</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L169" t="n">
         <v>30.67</v>
@@ -8898,7 +8920,7 @@
         <v>34.40000000000007</v>
       </c>
       <c r="K170" t="n">
-        <v>-27.99999999999985</v>
+        <v>-25</v>
       </c>
       <c r="L170" t="n">
         <v>30.64</v>
@@ -8949,7 +8971,7 @@
         <v>34.40000000000007</v>
       </c>
       <c r="K171" t="n">
-        <v>-9.999999999999929</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L171" t="n">
         <v>30.62</v>
@@ -9000,7 +9022,7 @@
         <v>34.70000000000007</v>
       </c>
       <c r="K172" t="n">
-        <v>-15.78947368421052</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>30.62</v>
@@ -9051,7 +9073,7 @@
         <v>35.00000000000007</v>
       </c>
       <c r="K173" t="n">
-        <v>-33.33333333333317</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L173" t="n">
         <v>30.59</v>
@@ -9102,7 +9124,7 @@
         <v>35.50000000000007</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L174" t="n">
         <v>30.62</v>
@@ -9153,7 +9175,7 @@
         <v>35.70000000000007</v>
       </c>
       <c r="K175" t="n">
-        <v>-11.99999999999999</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L175" t="n">
         <v>30.64</v>
@@ -9204,7 +9226,7 @@
         <v>35.90000000000008</v>
       </c>
       <c r="K176" t="n">
-        <v>-11.99999999999985</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>30.63</v>
@@ -9255,7 +9277,7 @@
         <v>36.00000000000008</v>
       </c>
       <c r="K177" t="n">
-        <v>-15.38461538461528</v>
+        <v>-5.263157894736882</v>
       </c>
       <c r="L177" t="n">
         <v>30.62</v>
@@ -9306,7 +9328,7 @@
         <v>36.40000000000008</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L178" t="n">
         <v>30.65</v>
@@ -9357,7 +9379,7 @@
         <v>36.40000000000008</v>
       </c>
       <c r="K179" t="n">
-        <v>3.448275862068885</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L179" t="n">
         <v>30.7</v>
@@ -9408,7 +9430,7 @@
         <v>36.40000000000008</v>
       </c>
       <c r="K180" t="n">
-        <v>3.448275862068885</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L180" t="n">
         <v>30.73999999999999</v>
@@ -9459,7 +9481,7 @@
         <v>36.50000000000008</v>
       </c>
       <c r="K181" t="n">
-        <v>10.3448275862069</v>
+        <v>11.11111111111104</v>
       </c>
       <c r="L181" t="n">
         <v>30.78999999999999</v>
@@ -9510,7 +9532,7 @@
         <v>36.50000000000008</v>
       </c>
       <c r="K182" t="n">
-        <v>7.142857142857107</v>
+        <v>33.33333333333318</v>
       </c>
       <c r="L182" t="n">
         <v>30.80999999999999</v>
@@ -9561,7 +9583,7 @@
         <v>36.50000000000008</v>
       </c>
       <c r="K183" t="n">
-        <v>7.142857142857107</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>30.85999999999999</v>
@@ -9612,7 +9634,7 @@
         <v>36.60000000000008</v>
       </c>
       <c r="K184" t="n">
-        <v>14.28571428571434</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L184" t="n">
         <v>30.86999999999999</v>
@@ -9663,7 +9685,7 @@
         <v>36.70000000000008</v>
       </c>
       <c r="K185" t="n">
-        <v>14.28571428571421</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L185" t="n">
         <v>30.88999999999999</v>
@@ -9714,7 +9736,7 @@
         <v>36.80000000000008</v>
       </c>
       <c r="K186" t="n">
-        <v>14.2857142857143</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L186" t="n">
         <v>30.93999999999999</v>
@@ -9765,7 +9787,7 @@
         <v>37.30000000000008</v>
       </c>
       <c r="K187" t="n">
-        <v>31.24999999999983</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L187" t="n">
         <v>31.04999999999999</v>
@@ -9816,7 +9838,7 @@
         <v>37.30000000000008</v>
       </c>
       <c r="K188" t="n">
-        <v>31.24999999999983</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L188" t="n">
         <v>31.12</v>
@@ -9867,7 +9889,7 @@
         <v>38.10000000000008</v>
       </c>
       <c r="K189" t="n">
-        <v>10.52631578947371</v>
+        <v>-5.882352941176335</v>
       </c>
       <c r="L189" t="n">
         <v>31.11</v>
@@ -9918,7 +9940,7 @@
         <v>38.30000000000008</v>
       </c>
       <c r="K190" t="n">
-        <v>12.82051282051278</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>31.12</v>
@@ -9969,7 +9991,7 @@
         <v>38.60000000000008</v>
       </c>
       <c r="K191" t="n">
-        <v>19.04761904761902</v>
+        <v>14.28571428571431</v>
       </c>
       <c r="L191" t="n">
         <v>31.15000000000001</v>
@@ -10020,7 +10042,7 @@
         <v>38.60000000000008</v>
       </c>
       <c r="K192" t="n">
-        <v>12.8205128205128</v>
+        <v>14.28571428571431</v>
       </c>
       <c r="L192" t="n">
         <v>31.18000000000001</v>
@@ -10071,7 +10093,7 @@
         <v>38.60000000000008</v>
       </c>
       <c r="K193" t="n">
-        <v>22.22222222222219</v>
+        <v>9.999999999999964</v>
       </c>
       <c r="L193" t="n">
         <v>31.21000000000001</v>
@@ -10173,7 +10195,7 @@
         <v>39.10000000000008</v>
       </c>
       <c r="K195" t="n">
-        <v>11.76470588235288</v>
+        <v>4.347826086956434</v>
       </c>
       <c r="L195" t="n">
         <v>31.22000000000001</v>
@@ -10224,7 +10246,7 @@
         <v>39.30000000000008</v>
       </c>
       <c r="K196" t="n">
-        <v>11.76470588235288</v>
+        <v>-30.00000000000007</v>
       </c>
       <c r="L196" t="n">
         <v>31.21</v>
@@ -10275,7 +10297,7 @@
         <v>39.40000000000008</v>
       </c>
       <c r="K197" t="n">
-        <v>11.76470588235288</v>
+        <v>-33.33333333333345</v>
       </c>
       <c r="L197" t="n">
         <v>31.14</v>
@@ -10326,7 +10348,7 @@
         <v>39.60000000000009</v>
       </c>
       <c r="K198" t="n">
-        <v>6.250000000000069</v>
+        <v>19.99999999999995</v>
       </c>
       <c r="L198" t="n">
         <v>31.09</v>
@@ -10377,7 +10399,7 @@
         <v>39.80000000000009</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L199" t="n">
         <v>31.09999999999999</v>
@@ -10428,7 +10450,7 @@
         <v>40.00000000000009</v>
       </c>
       <c r="K200" t="n">
-        <v>5.55555555555561</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L200" t="n">
         <v>31.11</v>
@@ -10479,7 +10501,7 @@
         <v>40.00000000000009</v>
       </c>
       <c r="K201" t="n">
-        <v>2.857142857142886</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L201" t="n">
         <v>31.09</v>
@@ -10530,7 +10552,7 @@
         <v>40.10000000000009</v>
       </c>
       <c r="K202" t="n">
-        <v>5.555555555555512</v>
+        <v>-6.666666666666698</v>
       </c>
       <c r="L202" t="n">
         <v>31.07999999999999</v>
@@ -10581,7 +10603,7 @@
         <v>40.10000000000009</v>
       </c>
       <c r="K203" t="n">
-        <v>5.555555555555512</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L203" t="n">
         <v>31.06999999999999</v>
@@ -10632,7 +10654,7 @@
         <v>40.2000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>5.555555555555512</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L204" t="n">
         <v>31.09999999999999</v>
@@ -10683,7 +10705,7 @@
         <v>40.40000000000009</v>
       </c>
       <c r="K205" t="n">
-        <v>13.51351351351348</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L205" t="n">
         <v>31.13</v>
@@ -10734,7 +10756,7 @@
         <v>40.60000000000009</v>
       </c>
       <c r="K206" t="n">
-        <v>5.263157894736808</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L206" t="n">
         <v>31.16</v>
@@ -10785,7 +10807,7 @@
         <v>40.60000000000009</v>
       </c>
       <c r="K207" t="n">
-        <v>-9.090909090909081</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L207" t="n">
         <v>31.2</v>
@@ -10836,7 +10858,7 @@
         <v>40.8000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>-2.857142857142886</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L208" t="n">
         <v>31.24</v>
@@ -10887,7 +10909,7 @@
         <v>41.2000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>9.677419354838685</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>31.26</v>
@@ -10938,7 +10960,7 @@
         <v>41.50000000000009</v>
       </c>
       <c r="K210" t="n">
-        <v>12.49999999999992</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L210" t="n">
         <v>31.29</v>
@@ -10989,7 +11011,7 @@
         <v>41.70000000000009</v>
       </c>
       <c r="K211" t="n">
-        <v>-3.22580645161294</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>31.29999999999999</v>
@@ -11040,7 +11062,7 @@
         <v>41.80000000000009</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L212" t="n">
         <v>31.31</v>
@@ -11142,7 +11164,7 @@
         <v>41.90000000000009</v>
       </c>
       <c r="K214" t="n">
-        <v>6.666666666666611</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L214" t="n">
         <v>31.31</v>
@@ -11193,7 +11215,7 @@
         <v>42.10000000000009</v>
       </c>
       <c r="K215" t="n">
-        <v>-6.666666666666611</v>
+        <v>-20.00000000000005</v>
       </c>
       <c r="L215" t="n">
         <v>31.26</v>
@@ -11244,7 +11266,7 @@
         <v>42.2000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>-3.448275862068999</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L216" t="n">
         <v>31.21999999999999</v>
@@ -11295,7 +11317,7 @@
         <v>42.5000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>9.677419354838685</v>
+        <v>-17.64705882352942</v>
       </c>
       <c r="L217" t="n">
         <v>31.20999999999999</v>
@@ -11346,7 +11368,7 @@
         <v>42.9000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>-9.090909090909081</v>
+        <v>-17.64705882352942</v>
       </c>
       <c r="L218" t="n">
         <v>31.13999999999999</v>
@@ -11397,7 +11419,7 @@
         <v>43.0000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>-6.249999999999958</v>
+        <v>-46.6666666666664</v>
       </c>
       <c r="L219" t="n">
         <v>31.09999999999999</v>
@@ -11448,7 +11470,7 @@
         <v>43.7000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>8.108108108108009</v>
+        <v>9.999999999999893</v>
       </c>
       <c r="L220" t="n">
         <v>31.09999999999999</v>
@@ -11499,7 +11521,7 @@
         <v>43.8000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>5.263157894736818</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>31.10999999999999</v>
@@ -11550,7 +11572,7 @@
         <v>43.8000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>2.702702702702739</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>31.10999999999999</v>
@@ -11601,7 +11623,7 @@
         <v>43.8000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>2.702702702702739</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L223" t="n">
         <v>31.10999999999999</v>
@@ -11652,7 +11674,7 @@
         <v>43.90000000000009</v>
       </c>
       <c r="K224" t="n">
-        <v>2.702702702702648</v>
+        <v>22.22222222222218</v>
       </c>
       <c r="L224" t="n">
         <v>31.12999999999999</v>
@@ -11703,7 +11725,7 @@
         <v>43.90000000000009</v>
       </c>
       <c r="K225" t="n">
-        <v>-2.857142857142898</v>
+        <v>29.41176470588243</v>
       </c>
       <c r="L225" t="n">
         <v>31.16999999999999</v>
@@ -11754,7 +11776,7 @@
         <v>43.90000000000009</v>
       </c>
       <c r="K226" t="n">
-        <v>3.030303030302968</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L226" t="n">
         <v>31.21999999999999</v>
@@ -11805,7 +11827,7 @@
         <v>44.00000000000009</v>
       </c>
       <c r="K227" t="n">
-        <v>5.882352941176452</v>
+        <v>63.6363636363639</v>
       </c>
       <c r="L227" t="n">
         <v>31.24999999999999</v>
@@ -11856,7 +11878,7 @@
         <v>44.00000000000009</v>
       </c>
       <c r="K228" t="n">
-        <v>0</v>
+        <v>80.00000000000064</v>
       </c>
       <c r="L228" t="n">
         <v>31.31999999999999</v>
@@ -11907,7 +11929,7 @@
         <v>44.00000000000009</v>
       </c>
       <c r="K229" t="n">
-        <v>14.28571428571425</v>
+        <v>33.33333333333491</v>
       </c>
       <c r="L229" t="n">
         <v>31.39999999999999</v>
@@ -11958,7 +11980,7 @@
         <v>44.3000000000001</v>
       </c>
       <c r="K230" t="n">
-        <v>-7.142857142857107</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L230" t="n">
         <v>31.37999999999999</v>
@@ -12009,7 +12031,7 @@
         <v>44.40000000000009</v>
       </c>
       <c r="K231" t="n">
-        <v>-3.703703703703621</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L231" t="n">
         <v>31.35999999999999</v>
@@ -12060,7 +12082,7 @@
         <v>44.40000000000009</v>
       </c>
       <c r="K232" t="n">
-        <v>-7.692307692307661</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L232" t="n">
         <v>31.33999999999999</v>
@@ -12111,7 +12133,7 @@
         <v>44.80000000000009</v>
       </c>
       <c r="K233" t="n">
-        <v>6.666666666666643</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L233" t="n">
         <v>31.35999999999999</v>
@@ -12162,7 +12184,7 @@
         <v>44.80000000000009</v>
       </c>
       <c r="K234" t="n">
-        <v>10.34482758620693</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L234" t="n">
         <v>31.36999999999999</v>
@@ -12213,7 +12235,7 @@
         <v>45.00000000000009</v>
       </c>
       <c r="K235" t="n">
-        <v>24.1379310344828</v>
+        <v>27.27272727272748</v>
       </c>
       <c r="L235" t="n">
         <v>31.4</v>
@@ -12264,7 +12286,7 @@
         <v>45.50000000000009</v>
       </c>
       <c r="K236" t="n">
-        <v>39.39393939393964</v>
+        <v>46.66666666666708</v>
       </c>
       <c r="L236" t="n">
         <v>31.48</v>
@@ -12315,7 +12337,7 @@
         <v>45.50000000000009</v>
       </c>
       <c r="K237" t="n">
-        <v>33.33333333333361</v>
+        <v>46.66666666666708</v>
       </c>
       <c r="L237" t="n">
         <v>31.54999999999999</v>
@@ -12366,7 +12388,7 @@
         <v>45.80000000000008</v>
       </c>
       <c r="K238" t="n">
-        <v>58.62068965517271</v>
+        <v>55.55555555555586</v>
       </c>
       <c r="L238" t="n">
         <v>31.65</v>
@@ -12417,7 +12439,7 @@
         <v>45.90000000000008</v>
       </c>
       <c r="K239" t="n">
-        <v>65.51724137931078</v>
+        <v>87.50000000000084</v>
       </c>
       <c r="L239" t="n">
         <v>31.76</v>
@@ -12468,7 +12490,7 @@
         <v>46.20000000000008</v>
       </c>
       <c r="K240" t="n">
-        <v>60.00000000000051</v>
+        <v>100.0000000000004</v>
       </c>
       <c r="L240" t="n">
         <v>31.93</v>
@@ -12519,7 +12541,7 @@
         <v>46.50000000000008</v>
       </c>
       <c r="K241" t="n">
-        <v>48.14814814814851</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L241" t="n">
         <v>32.08</v>
@@ -12570,7 +12592,7 @@
         <v>46.60000000000008</v>
       </c>
       <c r="K242" t="n">
-        <v>42.8571428571431</v>
+        <v>55.55555555555586</v>
       </c>
       <c r="L242" t="n">
         <v>32.21999999999999</v>
@@ -12621,7 +12643,7 @@
         <v>46.90000000000008</v>
       </c>
       <c r="K243" t="n">
-        <v>29.03225806451639</v>
+        <v>33.33333333333367</v>
       </c>
       <c r="L243" t="n">
         <v>32.28999999999999</v>
@@ -12672,7 +12694,7 @@
         <v>47.00000000000007</v>
       </c>
       <c r="K244" t="n">
-        <v>29.03225806451627</v>
+        <v>30.0000000000001</v>
       </c>
       <c r="L244" t="n">
         <v>32.36999999999999</v>
@@ -12723,7 +12745,7 @@
         <v>47.30000000000007</v>
       </c>
       <c r="K245" t="n">
-        <v>17.64705882352957</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L245" t="n">
         <v>32.39999999999999</v>
@@ -12774,7 +12796,7 @@
         <v>47.70000000000007</v>
       </c>
       <c r="K246" t="n">
-        <v>5.26315789473695</v>
+        <v>-27.27272727272756</v>
       </c>
       <c r="L246" t="n">
         <v>32.34</v>
@@ -12825,7 +12847,7 @@
         <v>47.70000000000007</v>
       </c>
       <c r="K247" t="n">
-        <v>2.70270270270276</v>
+        <v>-47.36842105263189</v>
       </c>
       <c r="L247" t="n">
         <v>32.28</v>
@@ -12876,7 +12898,7 @@
         <v>47.70000000000007</v>
       </c>
       <c r="K248" t="n">
-        <v>2.70270270270276</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L248" t="n">
         <v>32.19</v>
@@ -12927,7 +12949,7 @@
         <v>47.80000000000007</v>
       </c>
       <c r="K249" t="n">
-        <v>5.263157894736857</v>
+        <v>-75.00000000000055</v>
       </c>
       <c r="L249" t="n">
         <v>32.1</v>
@@ -12978,7 +13000,7 @@
         <v>47.90000000000006</v>
       </c>
       <c r="K250" t="n">
-        <v>11.11111111111128</v>
+        <v>-71.42857142857223</v>
       </c>
       <c r="L250" t="n">
         <v>31.97000000000001</v>
@@ -13029,7 +13051,7 @@
         <v>48.20000000000006</v>
       </c>
       <c r="K251" t="n">
-        <v>21.05263157894747</v>
+        <v>-37.50000000000055</v>
       </c>
       <c r="L251" t="n">
         <v>31.9</v>
@@ -13080,7 +13102,7 @@
         <v>48.30000000000006</v>
       </c>
       <c r="K252" t="n">
-        <v>23.07692307692322</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L252" t="n">
         <v>31.85</v>
@@ -13131,7 +13153,7 @@
         <v>48.40000000000006</v>
       </c>
       <c r="K253" t="n">
-        <v>11.11111111111116</v>
+        <v>-28.57142857142864</v>
       </c>
       <c r="L253" t="n">
         <v>31.82</v>
@@ -13182,7 +13204,7 @@
         <v>48.60000000000007</v>
       </c>
       <c r="K254" t="n">
-        <v>5.263157894736857</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L254" t="n">
         <v>31.76</v>
@@ -13233,7 +13255,7 @@
         <v>48.80000000000007</v>
       </c>
       <c r="K255" t="n">
-        <v>5.263157894736848</v>
+        <v>27.27272727272697</v>
       </c>
       <c r="L255" t="n">
         <v>31.74999999999999</v>
@@ -13284,7 +13306,7 @@
         <v>48.90000000000007</v>
       </c>
       <c r="K256" t="n">
-        <v>-5.882352941176581</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L256" t="n">
         <v>31.78999999999999</v>
@@ -13335,7 +13357,7 @@
         <v>49.10000000000007</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L257" t="n">
         <v>31.84999999999999</v>
@@ -13386,7 +13408,7 @@
         <v>49.20000000000007</v>
       </c>
       <c r="K258" t="n">
-        <v>-5.882352941176581</v>
+        <v>42.85714285714275</v>
       </c>
       <c r="L258" t="n">
         <v>31.91999999999999</v>
@@ -13437,7 +13459,7 @@
         <v>49.20000000000007</v>
       </c>
       <c r="K259" t="n">
-        <v>-9.090909090909268</v>
+        <v>53.84615384615334</v>
       </c>
       <c r="L259" t="n">
         <v>31.97999999999999</v>
@@ -13488,7 +13510,7 @@
         <v>49.50000000000006</v>
       </c>
       <c r="K260" t="n">
-        <v>-27.27272727272737</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L260" t="n">
         <v>32.01999999999999</v>
@@ -13539,7 +13561,7 @@
         <v>49.50000000000006</v>
       </c>
       <c r="K261" t="n">
-        <v>-20.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>32.02999999999999</v>
@@ -13590,7 +13612,7 @@
         <v>49.80000000000006</v>
       </c>
       <c r="K262" t="n">
-        <v>-6.250000000000125</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L262" t="n">
         <v>32.05999999999999</v>
@@ -13641,7 +13663,7 @@
         <v>49.90000000000006</v>
       </c>
       <c r="K263" t="n">
-        <v>0</v>
+        <v>38.46153846153903</v>
       </c>
       <c r="L263" t="n">
         <v>32.08999999999999</v>
@@ -13692,7 +13714,7 @@
         <v>50.10000000000006</v>
       </c>
       <c r="K264" t="n">
-        <v>-9.677419354838658</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L264" t="n">
         <v>32.11999999999999</v>
@@ -13743,7 +13765,7 @@
         <v>50.30000000000006</v>
       </c>
       <c r="K265" t="n">
-        <v>6.666666666666778</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L265" t="n">
         <v>32.14999999999999</v>
@@ -13794,7 +13816,7 @@
         <v>50.80000000000007</v>
       </c>
       <c r="K266" t="n">
-        <v>3.225806451612833</v>
+        <v>-29.41176470588264</v>
       </c>
       <c r="L266" t="n">
         <v>32.11999999999999</v>
@@ -13845,7 +13867,7 @@
         <v>50.80000000000007</v>
       </c>
       <c r="K267" t="n">
-        <v>3.225806451612833</v>
+        <v>-37.49999999999984</v>
       </c>
       <c r="L267" t="n">
         <v>32.06999999999999</v>
@@ -13896,7 +13918,7 @@
         <v>51.30000000000007</v>
       </c>
       <c r="K268" t="n">
-        <v>-11.11111111111117</v>
+        <v>-52.38095238095224</v>
       </c>
       <c r="L268" t="n">
         <v>31.95999999999999</v>
@@ -13947,7 +13969,7 @@
         <v>51.30000000000007</v>
       </c>
       <c r="K269" t="n">
-        <v>-14.28571428571428</v>
+        <v>-44.44444444444438</v>
       </c>
       <c r="L269" t="n">
         <v>31.84999999999999</v>
@@ -13998,7 +14020,7 @@
         <v>52.00000000000007</v>
       </c>
       <c r="K270" t="n">
-        <v>7.317073170731622</v>
+        <v>-4.000000000000045</v>
       </c>
       <c r="L270" t="n">
         <v>31.83999999999999</v>
@@ -14049,7 +14071,7 @@
         <v>52.80000000000007</v>
       </c>
       <c r="K271" t="n">
-        <v>-17.39130434782599</v>
+        <v>-39.99999999999977</v>
       </c>
       <c r="L271" t="n">
         <v>31.74999999999999</v>
@@ -14100,7 +14122,7 @@
         <v>53.70000000000007</v>
       </c>
       <c r="K272" t="n">
-        <v>0</v>
+        <v>-5.263157894736901</v>
       </c>
       <c r="L272" t="n">
         <v>31.71999999999999</v>
@@ -14151,7 +14173,7 @@
         <v>54.50000000000007</v>
       </c>
       <c r="K273" t="n">
-        <v>-11.47540983606555</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L273" t="n">
         <v>31.61999999999999</v>
@@ -14202,7 +14224,7 @@
         <v>54.80000000000007</v>
       </c>
       <c r="K274" t="n">
-        <v>-3.22580645161289</v>
+        <v>-15.55555555555559</v>
       </c>
       <c r="L274" t="n">
         <v>31.56999999999999</v>
@@ -14253,7 +14275,7 @@
         <v>54.90000000000007</v>
       </c>
       <c r="K275" t="n">
-        <v>-4.918032786885198</v>
+        <v>-2.43902439024385</v>
       </c>
       <c r="L275" t="n">
         <v>31.50999999999999</v>
@@ -14304,7 +14326,7 @@
         <v>55.10000000000007</v>
       </c>
       <c r="K276" t="n">
-        <v>-9.67741935483873</v>
+        <v>-6.976744186046521</v>
       </c>
       <c r="L276" t="n">
         <v>31.47999999999999</v>
@@ -14355,7 +14377,7 @@
         <v>55.40000000000008</v>
       </c>
       <c r="K277" t="n">
-        <v>-7.936507936507987</v>
+        <v>12.19512195121949</v>
       </c>
       <c r="L277" t="n">
         <v>31.47999999999999</v>
@@ -14406,7 +14428,7 @@
         <v>55.80000000000008</v>
       </c>
       <c r="K278" t="n">
-        <v>-15.15151515151508</v>
+        <v>2.22222222222225</v>
       </c>
       <c r="L278" t="n">
         <v>31.48999999999999</v>
@@ -14457,7 +14479,7 @@
         <v>56.10000000000008</v>
       </c>
       <c r="K279" t="n">
-        <v>-10.1449275362318</v>
+        <v>-7.317073170731622</v>
       </c>
       <c r="L279" t="n">
         <v>31.52999999999999</v>
@@ -14508,7 +14530,7 @@
         <v>56.10000000000008</v>
       </c>
       <c r="K280" t="n">
-        <v>-6.060606060606025</v>
+        <v>15.1515151515151</v>
       </c>
       <c r="L280" t="n">
         <v>31.5</v>
@@ -14559,7 +14581,7 @@
         <v>56.20000000000007</v>
       </c>
       <c r="K281" t="n">
-        <v>-4.477611940298512</v>
+        <v>-11.99999999999999</v>
       </c>
       <c r="L281" t="n">
         <v>31.56</v>
@@ -14610,7 +14632,7 @@
         <v>56.30000000000007</v>
       </c>
       <c r="K282" t="n">
-        <v>-10.76923076923069</v>
+        <v>22.22222222222238</v>
       </c>
       <c r="L282" t="n">
         <v>31.52</v>
@@ -14661,7 +14683,7 @@
         <v>56.40000000000006</v>
       </c>
       <c r="K283" t="n">
-        <v>-7.692307692307739</v>
+        <v>12.5</v>
       </c>
       <c r="L283" t="n">
         <v>31.57</v>
@@ -14712,7 +14734,7 @@
         <v>56.90000000000006</v>
       </c>
       <c r="K284" t="n">
-        <v>2.941176470588275</v>
+        <v>30.00000000000018</v>
       </c>
       <c r="L284" t="n">
         <v>31.64</v>
@@ -14763,7 +14785,7 @@
         <v>57.00000000000006</v>
       </c>
       <c r="K285" t="n">
-        <v>-1.492537313432856</v>
+        <v>36.84210526315821</v>
       </c>
       <c r="L285" t="n">
         <v>31.69</v>
@@ -14814,7 +14836,7 @@
         <v>57.60000000000007</v>
       </c>
       <c r="K286" t="n">
-        <v>-2.941176470588226</v>
+        <v>-9.090909090909104</v>
       </c>
       <c r="L286" t="n">
         <v>31.7</v>
@@ -14865,7 +14887,7 @@
         <v>58.20000000000007</v>
       </c>
       <c r="K287" t="n">
-        <v>5.405405405405435</v>
+        <v>33.33333333333348</v>
       </c>
       <c r="L287" t="n">
         <v>31.74</v>
@@ -14916,7 +14938,7 @@
         <v>58.20000000000007</v>
       </c>
       <c r="K288" t="n">
-        <v>13.0434782608696</v>
+        <v>23.80952380952396</v>
       </c>
       <c r="L288" t="n">
         <v>31.82</v>
@@ -14967,7 +14989,7 @@
         <v>58.20000000000007</v>
       </c>
       <c r="K289" t="n">
-        <v>13.0434782608696</v>
+        <v>23.80952380952396</v>
       </c>
       <c r="L289" t="n">
         <v>31.87</v>
@@ -15018,7 +15040,7 @@
         <v>58.20000000000007</v>
       </c>
       <c r="K290" t="n">
-        <v>3.225806451612951</v>
+        <v>20.00000000000018</v>
       </c>
       <c r="L290" t="n">
         <v>31.92000000000001</v>
@@ -15069,7 +15091,7 @@
         <v>58.40000000000006</v>
       </c>
       <c r="K291" t="n">
-        <v>21.42857142857137</v>
+        <v>33.33333333333322</v>
       </c>
       <c r="L291" t="n">
         <v>31.98000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>58.50000000000006</v>
       </c>
       <c r="K292" t="n">
-        <v>4.166666666666734</v>
+        <v>23.80952380952404</v>
       </c>
       <c r="L292" t="n">
         <v>32.04000000000001</v>
@@ -15171,7 +15193,7 @@
         <v>58.60000000000006</v>
       </c>
       <c r="K293" t="n">
-        <v>21.95121951219524</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L293" t="n">
         <v>32.08000000000001</v>
@@ -15222,7 +15244,7 @@
         <v>58.70000000000006</v>
       </c>
       <c r="K294" t="n">
-        <v>17.94871794871806</v>
+        <v>5.882352941176569</v>
       </c>
       <c r="L294" t="n">
         <v>32.08000000000001</v>
@@ -15273,7 +15295,7 @@
         <v>58.80000000000005</v>
       </c>
       <c r="K295" t="n">
-        <v>17.94871794871791</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L295" t="n">
         <v>32.10000000000001</v>
@@ -15324,7 +15346,7 @@
         <v>59.00000000000005</v>
       </c>
       <c r="K296" t="n">
-        <v>17.94871794871813</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
         <v>32.16000000000001</v>
@@ -15375,7 +15397,7 @@
         <v>59.10000000000005</v>
       </c>
       <c r="K297" t="n">
-        <v>13.5135135135137</v>
+        <v>11.11111111111146</v>
       </c>
       <c r="L297" t="n">
         <v>32.17</v>
@@ -15426,7 +15448,7 @@
         <v>59.10000000000005</v>
       </c>
       <c r="K298" t="n">
-        <v>27.27272727272754</v>
+        <v>11.11111111111146</v>
       </c>
       <c r="L298" t="n">
         <v>32.18</v>
@@ -15477,7 +15499,7 @@
         <v>59.20000000000005</v>
       </c>
       <c r="K299" t="n">
-        <v>16.12903225806466</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>32.18</v>
@@ -15528,7 +15550,7 @@
         <v>59.80000000000005</v>
       </c>
       <c r="K300" t="n">
-        <v>-2.70270270270276</v>
+        <v>-57.14285714285728</v>
       </c>
       <c r="L300" t="n">
         <v>32.12</v>
@@ -15579,7 +15601,7 @@
         <v>60.00000000000006</v>
       </c>
       <c r="K301" t="n">
-        <v>-10.5263157894737</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L301" t="n">
         <v>32.02</v>
@@ -15630,7 +15652,7 @@
         <v>60.00000000000006</v>
       </c>
       <c r="K302" t="n">
-        <v>-8.108108108108151</v>
+        <v>-57.14285714285725</v>
       </c>
       <c r="L302" t="n">
         <v>31.93</v>
@@ -15681,7 +15703,7 @@
         <v>60.20000000000006</v>
       </c>
       <c r="K303" t="n">
-        <v>-5.263157894736827</v>
+        <v>-46.66666666666686</v>
       </c>
       <c r="L303" t="n">
         <v>31.87</v>
@@ -15732,7 +15754,7 @@
         <v>60.30000000000006</v>
       </c>
       <c r="K304" t="n">
-        <v>-17.64705882352946</v>
+        <v>-46.66666666666616</v>
       </c>
       <c r="L304" t="n">
         <v>31.81</v>
@@ -15783,7 +15805,7 @@
         <v>60.40000000000006</v>
       </c>
       <c r="K305" t="n">
-        <v>-11.76470588235301</v>
+        <v>-28.57142857142846</v>
       </c>
       <c r="L305" t="n">
         <v>31.75</v>
@@ -15834,7 +15856,7 @@
         <v>60.60000000000007</v>
       </c>
       <c r="K306" t="n">
-        <v>13.33333333333329</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L306" t="n">
         <v>31.73</v>
@@ -15885,7 +15907,7 @@
         <v>60.60000000000007</v>
       </c>
       <c r="K307" t="n">
-        <v>-8.333333333333456</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L307" t="n">
         <v>31.7</v>
@@ -15936,7 +15958,7 @@
         <v>60.70000000000007</v>
       </c>
       <c r="K308" t="n">
-        <v>-4.000000000000057</v>
+        <v>-6.666666666666698</v>
       </c>
       <c r="L308" t="n">
         <v>31.68</v>
@@ -15987,7 +16009,7 @@
         <v>60.90000000000006</v>
       </c>
       <c r="K309" t="n">
-        <v>-11.11111111111116</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L309" t="n">
         <v>31.65</v>
@@ -16038,7 +16060,7 @@
         <v>61.10000000000007</v>
       </c>
       <c r="K310" t="n">
-        <v>-3.448275862069016</v>
+        <v>63.63636363636308</v>
       </c>
       <c r="L310" t="n">
         <v>31.7</v>
@@ -16089,7 +16111,7 @@
         <v>61.30000000000007</v>
       </c>
       <c r="K311" t="n">
-        <v>-17.24137931034467</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L311" t="n">
         <v>31.74999999999999</v>
@@ -16140,7 +16162,7 @@
         <v>61.50000000000007</v>
       </c>
       <c r="K312" t="n">
-        <v>-6.66666666666673</v>
+        <v>38.46153846153813</v>
       </c>
       <c r="L312" t="n">
         <v>31.81999999999999</v>
@@ -16191,7 +16213,7 @@
         <v>61.50000000000007</v>
       </c>
       <c r="K313" t="n">
-        <v>-3.448275862068999</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L313" t="n">
         <v>31.86999999999999</v>
@@ -16242,7 +16264,7 @@
         <v>61.60000000000007</v>
       </c>
       <c r="K314" t="n">
-        <v>-3.448275862068999</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L314" t="n">
         <v>31.91999999999999</v>
@@ -16293,7 +16315,7 @@
         <v>61.90000000000007</v>
       </c>
       <c r="K315" t="n">
-        <v>3.225806451612933</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L315" t="n">
         <v>31.98999999999999</v>
@@ -16344,7 +16366,7 @@
         <v>61.90000000000007</v>
       </c>
       <c r="K316" t="n">
-        <v>10.34482758620673</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L316" t="n">
         <v>32.03999999999999</v>
@@ -16395,7 +16417,7 @@
         <v>62.50000000000007</v>
       </c>
       <c r="K317" t="n">
-        <v>-11.76470588235293</v>
+        <v>-11.11111111111104</v>
       </c>
       <c r="L317" t="n">
         <v>32.02999999999999</v>
@@ -16446,7 +16468,7 @@
         <v>62.50000000000007</v>
       </c>
       <c r="K318" t="n">
-        <v>-11.76470588235293</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>32.01</v>
@@ -16497,7 +16519,7 @@
         <v>62.60000000000007</v>
       </c>
       <c r="K319" t="n">
-        <v>-11.76470588235293</v>
+        <v>-19.99999999999995</v>
       </c>
       <c r="L319" t="n">
         <v>31.99999999999999</v>
@@ -16548,7 +16570,7 @@
         <v>62.90000000000008</v>
       </c>
       <c r="K320" t="n">
-        <v>16.1290322580644</v>
+        <v>12.49999999999989</v>
       </c>
       <c r="L320" t="n">
         <v>31.99999999999999</v>
@@ -16599,7 +16621,7 @@
         <v>62.90000000000008</v>
       </c>
       <c r="K321" t="n">
-        <v>24.13793103448257</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>32.02</v>
@@ -16650,7 +16672,7 @@
         <v>63.20000000000007</v>
       </c>
       <c r="K322" t="n">
-        <v>12.49999999999989</v>
+        <v>-17.64705882352942</v>
       </c>
       <c r="L322" t="n">
         <v>31.98999999999999</v>
@@ -16701,7 +16723,7 @@
         <v>63.40000000000008</v>
       </c>
       <c r="K323" t="n">
-        <v>12.49999999999989</v>
+        <v>-11.11111111111124</v>
       </c>
       <c r="L323" t="n">
         <v>31.97999999999999</v>
@@ -16752,7 +16774,7 @@
         <v>63.50000000000008</v>
       </c>
       <c r="K324" t="n">
-        <v>12.49999999999989</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L324" t="n">
         <v>31.96999999999999</v>
@@ -16803,7 +16825,7 @@
         <v>63.50000000000008</v>
       </c>
       <c r="K325" t="n">
-        <v>9.677419354838685</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L325" t="n">
         <v>31.92999999999999</v>
@@ -16854,7 +16876,7 @@
         <v>63.70000000000008</v>
       </c>
       <c r="K326" t="n">
-        <v>9.677419354838799</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L326" t="n">
         <v>31.90999999999999</v>
@@ -16905,7 +16927,7 @@
         <v>63.70000000000008</v>
       </c>
       <c r="K327" t="n">
-        <v>9.677419354838799</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L327" t="n">
         <v>31.94999999999999</v>
@@ -16956,7 +16978,7 @@
         <v>63.70000000000008</v>
       </c>
       <c r="K328" t="n">
-        <v>6.66666666666673</v>
+        <v>45.45454545454542</v>
       </c>
       <c r="L328" t="n">
         <v>31.98999999999999</v>
@@ -17007,7 +17029,7 @@
         <v>63.90000000000008</v>
       </c>
       <c r="K329" t="n">
-        <v>6.666666666666596</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>32.01999999999999</v>
@@ -17058,7 +17080,7 @@
         <v>64.10000000000008</v>
       </c>
       <c r="K330" t="n">
-        <v>6.66666666666673</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L330" t="n">
         <v>32.03999999999998</v>
@@ -17109,7 +17131,7 @@
         <v>64.30000000000008</v>
       </c>
       <c r="K331" t="n">
-        <v>6.666666666666611</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L331" t="n">
         <v>32.03999999999998</v>
@@ -17160,7 +17182,7 @@
         <v>64.50000000000009</v>
       </c>
       <c r="K332" t="n">
-        <v>6.66666666666673</v>
+        <v>27.27272727272745</v>
       </c>
       <c r="L332" t="n">
         <v>32.08999999999999</v>
@@ -17211,7 +17233,7 @@
         <v>65.3000000000001</v>
       </c>
       <c r="K333" t="n">
-        <v>-15.78947368421046</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L333" t="n">
         <v>32.03999999999998</v>
@@ -17262,7 +17284,7 @@
         <v>66.0000000000001</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>4.000000000000023</v>
       </c>
       <c r="L334" t="n">
         <v>32.04999999999999</v>
@@ -17313,7 +17335,7 @@
         <v>66.10000000000011</v>
       </c>
       <c r="K335" t="n">
-        <v>-4.761904761904616</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>32.06999999999999</v>
@@ -17364,7 +17386,7 @@
         <v>66.30000000000011</v>
       </c>
       <c r="K336" t="n">
-        <v>-9.090909090908973</v>
+        <v>-7.692307692307714</v>
       </c>
       <c r="L336" t="n">
         <v>32.04999999999999</v>
@@ -17415,7 +17437,7 @@
         <v>66.80000000000011</v>
       </c>
       <c r="K337" t="n">
-        <v>-6.976744186046463</v>
+        <v>-22.5806451612902</v>
       </c>
       <c r="L337" t="n">
         <v>31.97999999999999</v>
@@ -17466,7 +17488,7 @@
         <v>66.80000000000011</v>
       </c>
       <c r="K338" t="n">
-        <v>-6.976744186046463</v>
+        <v>-17.24137931034467</v>
       </c>
       <c r="L338" t="n">
         <v>31.90999999999999</v>
@@ -17517,7 +17539,7 @@
         <v>67.10000000000011</v>
       </c>
       <c r="K339" t="n">
-        <v>2.222222222222236</v>
+        <v>-13.33333333333328</v>
       </c>
       <c r="L339" t="n">
         <v>31.88999999999999</v>
@@ -17568,7 +17590,7 @@
         <v>67.2000000000001</v>
       </c>
       <c r="K340" t="n">
-        <v>-2.325581395348856</v>
+        <v>-3.448275862068991</v>
       </c>
       <c r="L340" t="n">
         <v>31.85999999999999</v>
@@ -17619,7 +17641,7 @@
         <v>67.3000000000001</v>
       </c>
       <c r="K341" t="n">
-        <v>0</v>
+        <v>-7.142857142857216</v>
       </c>
       <c r="L341" t="n">
         <v>31.85999999999999</v>
@@ -17670,7 +17692,7 @@
         <v>67.3000000000001</v>
       </c>
       <c r="K342" t="n">
-        <v>7.317073170731685</v>
+        <v>30.00000000000007</v>
       </c>
       <c r="L342" t="n">
         <v>31.83999999999999</v>
@@ -17721,7 +17743,7 @@
         <v>67.3000000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>2.564102564102587</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L343" t="n">
         <v>31.9</v>
@@ -17772,7 +17794,7 @@
         <v>67.3000000000001</v>
       </c>
       <c r="K344" t="n">
-        <v>0</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L344" t="n">
         <v>31.88999999999999</v>
@@ -17874,7 +17896,7 @@
         <v>67.3000000000001</v>
       </c>
       <c r="K346" t="n">
-        <v>-5.55555555555561</v>
+        <v>100.0000000000028</v>
       </c>
       <c r="L346" t="n">
         <v>31.86999999999999</v>
@@ -17925,7 +17947,7 @@
         <v>67.8000000000001</v>
       </c>
       <c r="K347" t="n">
-        <v>-17.07317073170732</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>31.86999999999999</v>
@@ -17976,7 +17998,7 @@
         <v>67.90000000000009</v>
       </c>
       <c r="K348" t="n">
-        <v>-19.0476190476191</v>
+        <v>-50.00000000000134</v>
       </c>
       <c r="L348" t="n">
         <v>31.85999999999999</v>
@@ -18027,7 +18049,7 @@
         <v>68.20000000000009</v>
       </c>
       <c r="K349" t="n">
-        <v>-6.976744186046521</v>
+        <v>-20.00000000000021</v>
       </c>
       <c r="L349" t="n">
         <v>31.84999999999999</v>
@@ -18078,7 +18100,7 @@
         <v>68.40000000000009</v>
       </c>
       <c r="K350" t="n">
-        <v>-6.976744186046592</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L350" t="n">
         <v>31.84999999999999</v>
@@ -18129,7 +18151,7 @@
         <v>68.40000000000009</v>
       </c>
       <c r="K351" t="n">
-        <v>-2.439024390243932</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L351" t="n">
         <v>31.83999999999999</v>
@@ -18180,7 +18202,7 @@
         <v>69.10000000000009</v>
       </c>
       <c r="K352" t="n">
-        <v>-21.73913043478265</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L352" t="n">
         <v>31.75999999999998</v>
@@ -18231,7 +18253,7 @@
         <v>69.7000000000001</v>
       </c>
       <c r="K353" t="n">
-        <v>9.090909090909127</v>
+        <v>-8.333333333333284</v>
       </c>
       <c r="L353" t="n">
         <v>31.73999999999999</v>
@@ -18282,7 +18304,7 @@
         <v>69.7000000000001</v>
       </c>
       <c r="K354" t="n">
-        <v>-8.108108108108121</v>
+        <v>-8.333333333333284</v>
       </c>
       <c r="L354" t="n">
         <v>31.71999999999999</v>
@@ -18333,7 +18355,7 @@
         <v>69.7000000000001</v>
       </c>
       <c r="K355" t="n">
-        <v>-11.11111111111119</v>
+        <v>-8.333333333333284</v>
       </c>
       <c r="L355" t="n">
         <v>31.69999999999999</v>
@@ -18384,7 +18406,7 @@
         <v>69.8000000000001</v>
       </c>
       <c r="K356" t="n">
-        <v>-8.571428571428626</v>
+        <v>9.999999999999964</v>
       </c>
       <c r="L356" t="n">
         <v>31.66999999999999</v>
@@ -18435,7 +18457,7 @@
         <v>69.8000000000001</v>
       </c>
       <c r="K357" t="n">
-        <v>6.666666666666675</v>
+        <v>15.78947368421052</v>
       </c>
       <c r="L357" t="n">
         <v>31.68999999999999</v>
@@ -18486,7 +18508,7 @@
         <v>69.90000000000009</v>
       </c>
       <c r="K358" t="n">
-        <v>9.677419354838793</v>
+        <v>5.882352941176544</v>
       </c>
       <c r="L358" t="n">
         <v>31.72999999999999</v>
@@ -18537,7 +18559,7 @@
         <v>70.40000000000009</v>
       </c>
       <c r="K359" t="n">
-        <v>-15.15151515151523</v>
+        <v>-29.99999999999989</v>
       </c>
       <c r="L359" t="n">
         <v>31.68999999999999</v>
@@ -18588,7 +18610,7 @@
         <v>70.8000000000001</v>
       </c>
       <c r="K360" t="n">
-        <v>-5.555555555555545</v>
+        <v>-8.333333333333284</v>
       </c>
       <c r="L360" t="n">
         <v>31.66999999999999</v>
@@ -18639,7 +18661,7 @@
         <v>71.2000000000001</v>
       </c>
       <c r="K361" t="n">
-        <v>-17.9487179487179</v>
+        <v>4.76190476190481</v>
       </c>
       <c r="L361" t="n">
         <v>31.61</v>
@@ -18690,7 +18712,7 @@
         <v>71.2000000000001</v>
       </c>
       <c r="K362" t="n">
-        <v>-17.9487179487179</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L362" t="n">
         <v>31.62</v>
@@ -18741,7 +18763,7 @@
         <v>71.90000000000011</v>
       </c>
       <c r="K363" t="n">
-        <v>0</v>
+        <v>9.090909090909047</v>
       </c>
       <c r="L363" t="n">
         <v>31.64</v>
@@ -18792,7 +18814,7 @@
         <v>71.90000000000011</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>9.090909090909047</v>
       </c>
       <c r="L364" t="n">
         <v>31.66</v>
@@ -18843,7 +18865,7 @@
         <v>71.90000000000011</v>
       </c>
       <c r="K365" t="n">
-        <v>0</v>
+        <v>14.28571428571426</v>
       </c>
       <c r="L365" t="n">
         <v>31.68</v>
@@ -18894,7 +18916,7 @@
         <v>72.00000000000011</v>
       </c>
       <c r="K366" t="n">
-        <v>-2.127659574468108</v>
+        <v>9.090909090908989</v>
       </c>
       <c r="L366" t="n">
         <v>31.7</v>
@@ -18945,7 +18967,7 @@
         <v>72.10000000000011</v>
       </c>
       <c r="K367" t="n">
-        <v>11.62790697674416</v>
+        <v>9.090909090908989</v>
       </c>
       <c r="L367" t="n">
         <v>31.73</v>
@@ -18996,7 +19018,7 @@
         <v>72.2000000000001</v>
       </c>
       <c r="K368" t="n">
-        <v>11.62790697674416</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L368" t="n">
         <v>31.73999999999999</v>
@@ -19047,7 +19069,7 @@
         <v>72.2000000000001</v>
       </c>
       <c r="K369" t="n">
-        <v>4.999999999999964</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L369" t="n">
         <v>31.79999999999999</v>
@@ -19098,7 +19120,7 @@
         <v>72.3000000000001</v>
       </c>
       <c r="K370" t="n">
-        <v>2.564102564102597</v>
+        <v>63.6363636363639</v>
       </c>
       <c r="L370" t="n">
         <v>31.82999999999999</v>
@@ -19149,7 +19171,7 @@
         <v>72.40000000000009</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L371" t="n">
         <v>31.88999999999999</v>
@@ -19200,7 +19222,7 @@
         <v>72.8000000000001</v>
       </c>
       <c r="K372" t="n">
-        <v>8.108108108108121</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L372" t="n">
         <v>31.90999999999999</v>
@@ -19251,7 +19273,7 @@
         <v>73.2000000000001</v>
       </c>
       <c r="K373" t="n">
-        <v>2.857142857142796</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L373" t="n">
         <v>31.89999999999998</v>
@@ -19302,7 +19324,7 @@
         <v>73.40000000000011</v>
       </c>
       <c r="K374" t="n">
-        <v>8.108108108108121</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L374" t="n">
         <v>31.90999999999999</v>
@@ -19353,7 +19375,7 @@
         <v>73.40000000000011</v>
       </c>
       <c r="K375" t="n">
-        <v>8.108108108108121</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L375" t="n">
         <v>31.91999999999999</v>
@@ -19404,7 +19426,7 @@
         <v>73.40000000000011</v>
       </c>
       <c r="K376" t="n">
-        <v>11.11111111111114</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L376" t="n">
         <v>31.93999999999999</v>
@@ -19455,7 +19477,7 @@
         <v>73.50000000000011</v>
       </c>
       <c r="K377" t="n">
-        <v>13.51351351351355</v>
+        <v>23.0769230769232</v>
       </c>
       <c r="L377" t="n">
         <v>31.95999999999999</v>
@@ -19506,7 +19528,7 @@
         <v>73.50000000000011</v>
       </c>
       <c r="K378" t="n">
-        <v>11.1111111111111</v>
+        <v>23.0769230769232</v>
       </c>
       <c r="L378" t="n">
         <v>31.98999999999999</v>
@@ -19557,7 +19579,7 @@
         <v>73.50000000000011</v>
       </c>
       <c r="K379" t="n">
-        <v>29.03225806451599</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L379" t="n">
         <v>32.02</v>
@@ -19608,7 +19630,7 @@
         <v>73.80000000000011</v>
       </c>
       <c r="K380" t="n">
-        <v>26.66666666666656</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L380" t="n">
         <v>32.06999999999999</v>
@@ -19659,7 +19681,7 @@
         <v>73.90000000000012</v>
       </c>
       <c r="K381" t="n">
-        <v>48.14814814814787</v>
+        <v>99.99999999999805</v>
       </c>
       <c r="L381" t="n">
         <v>32.14</v>
@@ -19710,7 +19732,7 @@
         <v>74.00000000000011</v>
       </c>
       <c r="K382" t="n">
-        <v>49.99999999999987</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L382" t="n">
         <v>32.26</v>
@@ -19761,7 +19783,7 @@
         <v>74.00000000000011</v>
       </c>
       <c r="K383" t="n">
-        <v>33.33333333333333</v>
+        <v>99.99999999999881</v>
       </c>
       <c r="L383" t="n">
         <v>32.34</v>
@@ -19812,7 +19834,7 @@
         <v>74.10000000000011</v>
       </c>
       <c r="K384" t="n">
-        <v>27.27272727272731</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L384" t="n">
         <v>32.39</v>
@@ -19863,7 +19885,7 @@
         <v>74.10000000000011</v>
       </c>
       <c r="K385" t="n">
-        <v>27.27272727272731</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L385" t="n">
         <v>32.44</v>
@@ -19914,7 +19936,7 @@
         <v>74.40000000000011</v>
       </c>
       <c r="K386" t="n">
-        <v>41.66666666666681</v>
+        <v>77.77777777777804</v>
       </c>
       <c r="L386" t="n">
         <v>32.52</v>
@@ -19965,7 +19987,7 @@
         <v>74.40000000000011</v>
       </c>
       <c r="K387" t="n">
-        <v>39.13043478260868</v>
+        <v>77.77777777777804</v>
       </c>
       <c r="L387" t="n">
         <v>32.58999999999999</v>
@@ -20016,7 +20038,7 @@
         <v>74.50000000000011</v>
       </c>
       <c r="K388" t="n">
-        <v>47.82608695652156</v>
+        <v>79.99999999999972</v>
       </c>
       <c r="L388" t="n">
         <v>32.66999999999999</v>
@@ -20067,7 +20089,7 @@
         <v>75.00000000000011</v>
       </c>
       <c r="K389" t="n">
-        <v>57.14285714285696</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L389" t="n">
         <v>32.8</v>
@@ -20118,7 +20140,7 @@
         <v>75.10000000000011</v>
       </c>
       <c r="K390" t="n">
-        <v>49.99999999999974</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L390" t="n">
         <v>32.88999999999999</v>
@@ -20169,7 +20191,7 @@
         <v>75.50000000000011</v>
       </c>
       <c r="K391" t="n">
-        <v>35.48387096774172</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L391" t="n">
         <v>32.92999999999999</v>
@@ -20220,7 +20242,7 @@
         <v>75.50000000000011</v>
       </c>
       <c r="K392" t="n">
-        <v>55.5555555555552</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L392" t="n">
         <v>32.95999999999999</v>
@@ -20271,7 +20293,7 @@
         <v>75.70000000000012</v>
       </c>
       <c r="K393" t="n">
-        <v>51.99999999999988</v>
+        <v>37.49999999999989</v>
       </c>
       <c r="L393" t="n">
         <v>33.00999999999999</v>
@@ -20322,7 +20344,7 @@
         <v>75.70000000000012</v>
       </c>
       <c r="K394" t="n">
-        <v>47.82608695652156</v>
+        <v>37.49999999999989</v>
       </c>
       <c r="L394" t="n">
         <v>33.06999999999999</v>
@@ -20373,7 +20395,7 @@
         <v>76.20000000000012</v>
       </c>
       <c r="K395" t="n">
-        <v>21.42857142857139</v>
+        <v>-11.1111111111108</v>
       </c>
       <c r="L395" t="n">
         <v>33.07999999999998</v>
@@ -20424,7 +20446,7 @@
         <v>76.80000000000011</v>
       </c>
       <c r="K396" t="n">
-        <v>35.29411764705863</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L396" t="n">
         <v>33.11999999999999</v>
@@ -20475,7 +20497,7 @@
         <v>76.80000000000011</v>
       </c>
       <c r="K397" t="n">
-        <v>33.33333333333319</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L397" t="n">
         <v>33.15999999999999</v>
@@ -20526,7 +20548,7 @@
         <v>77.7000000000001</v>
       </c>
       <c r="K398" t="n">
-        <v>4.761904761904674</v>
+        <v>-40.74074074074097</v>
       </c>
       <c r="L398" t="n">
         <v>33.09999999999999</v>
@@ -20577,7 +20599,7 @@
         <v>78.40000000000011</v>
       </c>
       <c r="K399" t="n">
-        <v>18.36734693877552</v>
+        <v>-9.090909090909012</v>
       </c>
       <c r="L399" t="n">
         <v>33.05999999999999</v>
@@ -20628,7 +20650,7 @@
         <v>78.50000000000011</v>
       </c>
       <c r="K400" t="n">
-        <v>10.63829787234042</v>
+        <v>0</v>
       </c>
       <c r="L400" t="n">
         <v>33.02</v>
@@ -20679,7 +20701,7 @@
         <v>78.80000000000011</v>
       </c>
       <c r="K401" t="n">
-        <v>2.040816326530645</v>
+        <v>-9.090909090909012</v>
       </c>
       <c r="L401" t="n">
         <v>32.98999999999999</v>
@@ -20730,7 +20752,7 @@
         <v>78.80000000000011</v>
       </c>
       <c r="K402" t="n">
-        <v>0</v>
+        <v>-16.12903225806455</v>
       </c>
       <c r="L402" t="n">
         <v>32.95999999999999</v>
@@ -20781,7 +20803,7 @@
         <v>79.00000000000011</v>
       </c>
       <c r="K403" t="n">
-        <v>-4.000000000000057</v>
+        <v>-21.21212121212131</v>
       </c>
       <c r="L403" t="n">
         <v>32.88999999999999</v>
@@ -20832,7 +20854,7 @@
         <v>79.00000000000011</v>
       </c>
       <c r="K404" t="n">
-        <v>-2.040816326530639</v>
+        <v>-7.142857142857252</v>
       </c>
       <c r="L404" t="n">
         <v>32.81999999999999</v>
@@ -20883,7 +20905,7 @@
         <v>79.60000000000011</v>
       </c>
       <c r="K405" t="n">
-        <v>9.090909090909092</v>
+        <v>-7.142857142856998</v>
       </c>
       <c r="L405" t="n">
         <v>32.86</v>
@@ -20934,7 +20956,7 @@
         <v>80.7000000000001</v>
       </c>
       <c r="K406" t="n">
-        <v>-14.28571428571427</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L406" t="n">
         <v>32.73</v>
@@ -20985,7 +21007,7 @@
         <v>81.2000000000001</v>
       </c>
       <c r="K407" t="n">
-        <v>-5.882352941176452</v>
+        <v>2.857142857142898</v>
       </c>
       <c r="L407" t="n">
         <v>32.64999999999999</v>
@@ -21036,7 +21058,7 @@
         <v>81.3000000000001</v>
       </c>
       <c r="K408" t="n">
-        <v>-5.882352941176464</v>
+        <v>-17.24137931034488</v>
       </c>
       <c r="L408" t="n">
         <v>32.67</v>
@@ -21087,7 +21109,7 @@
         <v>81.8000000000001</v>
       </c>
       <c r="K409" t="n">
-        <v>-20.58823529411768</v>
+        <v>-27.27272727272737</v>
       </c>
       <c r="L409" t="n">
         <v>32.57</v>
@@ -21138,7 +21160,7 @@
         <v>81.8000000000001</v>
       </c>
       <c r="K410" t="n">
-        <v>-19.40298507462686</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L410" t="n">
         <v>32.48</v>
@@ -21189,7 +21211,7 @@
         <v>82.40000000000009</v>
       </c>
       <c r="K411" t="n">
-        <v>-4.347826086956495</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>32.48</v>
@@ -21240,7 +21262,7 @@
         <v>83.2000000000001</v>
       </c>
       <c r="K412" t="n">
-        <v>-14.28571428571433</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L412" t="n">
         <v>32.4</v>
@@ -21291,7 +21313,7 @@
         <v>83.2000000000001</v>
       </c>
       <c r="K413" t="n">
-        <v>-17.33333333333342</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L413" t="n">
         <v>32.34</v>
@@ -21342,7 +21364,7 @@
         <v>84.00000000000011</v>
       </c>
       <c r="K414" t="n">
-        <v>-6.024096385542171</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L414" t="n">
         <v>32.36</v>
@@ -21393,7 +21415,7 @@
         <v>84.30000000000013</v>
       </c>
       <c r="K415" t="n">
-        <v>-3.703703703703753</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L415" t="n">
         <v>32.28999999999999</v>
@@ -21444,7 +21466,7 @@
         <v>84.60000000000014</v>
       </c>
       <c r="K416" t="n">
-        <v>-7.692307692307594</v>
+        <v>5.882352941176496</v>
       </c>
       <c r="L416" t="n">
         <v>32.35999999999999</v>
@@ -21495,7 +21517,7 @@
         <v>84.70000000000013</v>
       </c>
       <c r="K417" t="n">
-        <v>-8.860759493670809</v>
+        <v>0</v>
       </c>
       <c r="L417" t="n">
         <v>32.36999999999999</v>
@@ -21546,7 +21568,7 @@
         <v>84.70000000000013</v>
       </c>
       <c r="K418" t="n">
-        <v>2.857142857142886</v>
+        <v>17.24137931034463</v>
       </c>
       <c r="L418" t="n">
         <v>32.36999999999999</v>
@@ -21597,7 +21619,7 @@
         <v>84.80000000000013</v>
       </c>
       <c r="K419" t="n">
-        <v>-6.249999999999958</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L419" t="n">
         <v>32.42999999999999</v>
@@ -21648,7 +21670,7 @@
         <v>84.80000000000013</v>
       </c>
       <c r="K420" t="n">
-        <v>-4.761904761904709</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>32.48999999999999</v>
@@ -21699,7 +21721,7 @@
         <v>84.90000000000012</v>
       </c>
       <c r="K421" t="n">
-        <v>-1.639344262295103</v>
+        <v>41.17647058823505</v>
       </c>
       <c r="L421" t="n">
         <v>32.47999999999999</v>
@@ -21750,7 +21772,7 @@
         <v>84.90000000000012</v>
       </c>
       <c r="K422" t="n">
-        <v>-1.639344262295103</v>
+        <v>41.17647058823505</v>
       </c>
       <c r="L422" t="n">
         <v>32.55</v>
@@ -21801,7 +21823,7 @@
         <v>85.50000000000011</v>
       </c>
       <c r="K423" t="n">
-        <v>-7.692307692307693</v>
+        <v>-46.66666666666686</v>
       </c>
       <c r="L423" t="n">
         <v>32.56</v>
@@ -21852,7 +21874,7 @@
         <v>86.00000000000011</v>
       </c>
       <c r="K424" t="n">
-        <v>0</v>
+        <v>5.882352941176594</v>
       </c>
       <c r="L424" t="n">
         <v>32.54</v>
@@ -21903,7 +21925,7 @@
         <v>86.50000000000011</v>
       </c>
       <c r="K425" t="n">
-        <v>-15.94202898550725</v>
+        <v>-36.84210526315849</v>
       </c>
       <c r="L425" t="n">
         <v>32.5</v>
@@ -21954,7 +21976,7 @@
         <v>86.80000000000011</v>
       </c>
       <c r="K426" t="n">
-        <v>4.918032786885193</v>
+        <v>-14.28571428571462</v>
       </c>
       <c r="L426" t="n">
         <v>32.46</v>
@@ -22005,7 +22027,7 @@
         <v>86.90000000000012</v>
       </c>
       <c r="K427" t="n">
-        <v>-1.7543859649123</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L427" t="n">
         <v>32.44</v>
@@ -22056,7 +22078,7 @@
         <v>87.20000000000012</v>
       </c>
       <c r="K428" t="n">
-        <v>-8.474576271186413</v>
+        <v>-25.00000000000015</v>
       </c>
       <c r="L428" t="n">
         <v>32.39</v>
@@ -22107,7 +22129,7 @@
         <v>87.70000000000012</v>
       </c>
       <c r="K429" t="n">
-        <v>-8.474576271186413</v>
+        <v>-37.93103448275878</v>
       </c>
       <c r="L429" t="n">
         <v>32.28</v>
@@ -22158,7 +22180,7 @@
         <v>87.80000000000011</v>
       </c>
       <c r="K430" t="n">
-        <v>-6.666666666666686</v>
+        <v>-31.03448275862086</v>
       </c>
       <c r="L430" t="n">
         <v>32.18</v>
@@ -22209,7 +22231,7 @@
         <v>88.10000000000011</v>
       </c>
       <c r="K431" t="n">
-        <v>-12.28070175438598</v>
+        <v>-18.75000000000011</v>
       </c>
       <c r="L431" t="n">
         <v>32.12</v>
@@ -22260,7 +22282,7 @@
         <v>88.30000000000011</v>
       </c>
       <c r="K432" t="n">
-        <v>5.882352941176544</v>
+        <v>7.142857142857252</v>
       </c>
       <c r="L432" t="n">
         <v>32.08</v>
@@ -22311,7 +22333,7 @@
         <v>88.70000000000012</v>
       </c>
       <c r="K433" t="n">
-        <v>-1.818181818181775</v>
+        <v>-25.92592592592587</v>
       </c>
       <c r="L433" t="n">
         <v>32.06</v>
@@ -22362,7 +22384,7 @@
         <v>89.00000000000011</v>
       </c>
       <c r="K434" t="n">
-        <v>-12.00000000000003</v>
+        <v>4.000000000000057</v>
       </c>
       <c r="L434" t="n">
         <v>32.02</v>
@@ -22413,7 +22435,7 @@
         <v>89.10000000000011</v>
       </c>
       <c r="K435" t="n">
-        <v>-4.166666666666593</v>
+        <v>-4.34782608695628</v>
       </c>
       <c r="L435" t="n">
         <v>32.04</v>
@@ -22464,7 +22486,7 @@
         <v>89.10000000000011</v>
       </c>
       <c r="K436" t="n">
-        <v>-11.11111111111118</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L436" t="n">
         <v>32.02999999999999</v>
@@ -22515,7 +22537,7 @@
         <v>89.40000000000011</v>
       </c>
       <c r="K437" t="n">
-        <v>-2.127659574468127</v>
+        <v>18.18181818181821</v>
       </c>
       <c r="L437" t="n">
         <v>32.04</v>
@@ -22566,7 +22588,7 @@
         <v>89.60000000000011</v>
       </c>
       <c r="K438" t="n">
-        <v>2.04081632653065</v>
+        <v>57.8947368421056</v>
       </c>
       <c r="L438" t="n">
         <v>32.09999999999999</v>
@@ -22617,7 +22639,7 @@
         <v>90.10000000000011</v>
       </c>
       <c r="K439" t="n">
-        <v>-9.433962264150972</v>
+        <v>21.73913043478279</v>
       </c>
       <c r="L439" t="n">
         <v>32.15999999999999</v>
@@ -22668,7 +22690,7 @@
         <v>90.60000000000011</v>
       </c>
       <c r="K440" t="n">
-        <v>0</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L440" t="n">
         <v>32.25999999999999</v>
@@ -22719,7 +22741,7 @@
         <v>90.90000000000012</v>
       </c>
       <c r="K441" t="n">
-        <v>-3.333333333333381</v>
+        <v>7.692307692307502</v>
       </c>
       <c r="L441" t="n">
         <v>32.29999999999999</v>
@@ -22770,7 +22792,7 @@
         <v>91.20000000000013</v>
       </c>
       <c r="K442" t="n">
-        <v>1.587301587301607</v>
+        <v>35.99999999999988</v>
       </c>
       <c r="L442" t="n">
         <v>32.34999999999999</v>
@@ -22821,7 +22843,7 @@
         <v>91.20000000000013</v>
       </c>
       <c r="K443" t="n">
-        <v>12.28070175438598</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L443" t="n">
         <v>32.43999999999998</v>
@@ -22872,7 +22894,7 @@
         <v>91.30000000000013</v>
       </c>
       <c r="K444" t="n">
-        <v>5.6603773584905</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L444" t="n">
         <v>32.50999999999998</v>
@@ -22923,7 +22945,7 @@
         <v>91.30000000000013</v>
       </c>
       <c r="K445" t="n">
-        <v>16.66666666666657</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L445" t="n">
         <v>32.56999999999999</v>
@@ -22974,7 +22996,7 @@
         <v>91.70000000000013</v>
       </c>
       <c r="K446" t="n">
-        <v>18.36734693877555</v>
+        <v>30.43478260869544</v>
       </c>
       <c r="L446" t="n">
         <v>32.66999999999999</v>
@@ -23025,7 +23047,7 @@
         <v>91.70000000000013</v>
       </c>
       <c r="K447" t="n">
-        <v>16.66666666666671</v>
+        <v>23.80952380952355</v>
       </c>
       <c r="L447" t="n">
         <v>32.73999999999999</v>
@@ -23076,7 +23098,7 @@
         <v>91.70000000000013</v>
       </c>
       <c r="K448" t="n">
-        <v>24.4444444444444</v>
+        <v>62.49999999999911</v>
       </c>
       <c r="L448" t="n">
         <v>32.78999999999998</v>
@@ -23127,7 +23149,7 @@
         <v>91.70000000000013</v>
       </c>
       <c r="K449" t="n">
-        <v>39.99999999999989</v>
+        <v>45.45454545454452</v>
       </c>
       <c r="L449" t="n">
         <v>32.88999999999999</v>
@@ -23178,7 +23200,7 @@
         <v>91.80000000000013</v>
       </c>
       <c r="K450" t="n">
-        <v>34.99999999999993</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L450" t="n">
         <v>32.92999999999999</v>
@@ -23229,7 +23251,7 @@
         <v>92.30000000000013</v>
       </c>
       <c r="K451" t="n">
-        <v>14.28571428571426</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L451" t="n">
         <v>32.95</v>
@@ -23280,7 +23302,7 @@
         <v>92.70000000000013</v>
       </c>
       <c r="K452" t="n">
-        <v>18.18181818181803</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L452" t="n">
         <v>32.98</v>
@@ -23331,7 +23353,7 @@
         <v>93.20000000000013</v>
       </c>
       <c r="K453" t="n">
-        <v>15.55555555555549</v>
+        <v>-15.78947368421033</v>
       </c>
       <c r="L453" t="n">
         <v>32.95999999999999</v>
@@ -23382,7 +23404,7 @@
         <v>93.70000000000013</v>
       </c>
       <c r="K454" t="n">
-        <v>19.14893617021266</v>
+        <v>8.333333333333432</v>
       </c>
       <c r="L454" t="n">
         <v>32.98</v>
@@ -23433,7 +23455,7 @@
         <v>93.80000000000013</v>
       </c>
       <c r="K455" t="n">
-        <v>19.14893617021266</v>
+        <v>-4.761904761904842</v>
       </c>
       <c r="L455" t="n">
         <v>33.01</v>
@@ -23484,7 +23506,7 @@
         <v>93.90000000000012</v>
       </c>
       <c r="K456" t="n">
-        <v>20.83333333333329</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>33.01</v>
@@ -23535,7 +23557,7 @@
         <v>94.30000000000013</v>
       </c>
       <c r="K457" t="n">
-        <v>6.122448979591754</v>
+        <v>-15.38461538461564</v>
       </c>
       <c r="L457" t="n">
         <v>32.97</v>
@@ -23586,7 +23608,7 @@
         <v>94.30000000000013</v>
       </c>
       <c r="K458" t="n">
-        <v>2.127659574467956</v>
+        <v>-15.38461538461564</v>
       </c>
       <c r="L458" t="n">
         <v>32.93</v>

--- a/BackTest/2019-10-31 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-31 BackTest ETZ.xlsx
@@ -4546,14 +4546,20 @@
         <v>32.38666666666671</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>32</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4581,14 +4587,20 @@
         <v>32.36500000000004</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>32.2</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4616,14 +4628,20 @@
         <v>32.34333333333338</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>31.2</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4669,20 @@
         <v>32.33166666666671</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>31.1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +4717,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +4756,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +4795,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +4834,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +4873,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4861,14 +4905,20 @@
         <v>32.26166666666671</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>31.5</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4896,14 +4946,20 @@
         <v>32.2316666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>31.5</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4931,14 +4987,20 @@
         <v>32.20000000000004</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>31.3</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4966,14 +5028,20 @@
         <v>32.17333333333337</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>31.2</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5008,7 +5076,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5036,14 +5108,20 @@
         <v>32.12333333333338</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>31.5</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5071,14 +5149,20 @@
         <v>32.09666666666671</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>31.5</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5106,14 +5190,20 @@
         <v>32.07333333333337</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>31.5</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5141,14 +5231,20 @@
         <v>32.06000000000004</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>31.3</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5176,14 +5272,20 @@
         <v>32.04500000000004</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>31.4</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5211,14 +5313,20 @@
         <v>32.02500000000005</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>31.4</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5361,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5400,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5439,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5478,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5517,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5556,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5595,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5634,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5673,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5712,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5751,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5790,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +5829,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +5868,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5736,18 +5900,16 @@
         <v>31.63000000000004</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>31.1</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M153" t="n">
@@ -5777,14 +5939,12 @@
         <v>31.59833333333337</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>31</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -5818,14 +5978,12 @@
         <v>31.5766666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>31.1</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -5859,14 +6017,12 @@
         <v>31.55000000000004</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>31</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -5900,14 +6056,12 @@
         <v>31.52500000000004</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>30.9</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -5941,14 +6095,12 @@
         <v>31.50166666666671</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>30.9</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -5982,14 +6134,12 @@
         <v>31.47666666666671</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>30.8</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6023,14 +6173,12 @@
         <v>31.44500000000004</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6064,14 +6212,12 @@
         <v>31.41000000000004</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6105,14 +6251,12 @@
         <v>31.37833333333337</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>30.8</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6146,14 +6290,12 @@
         <v>31.3466666666667</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>30.8</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6187,14 +6329,12 @@
         <v>31.31333333333337</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6228,14 +6368,12 @@
         <v>31.2866666666667</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6269,14 +6407,12 @@
         <v>31.2666666666667</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6310,14 +6446,12 @@
         <v>31.24500000000003</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6351,14 +6485,12 @@
         <v>31.22000000000003</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6392,14 +6524,12 @@
         <v>31.20000000000003</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>30.5</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6433,14 +6563,12 @@
         <v>31.1816666666667</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>30.5</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
@@ -6474,14 +6602,12 @@
         <v>31.16500000000003</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>30.5</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
@@ -6515,14 +6641,12 @@
         <v>31.15833333333337</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>30.8</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -6556,14 +6680,12 @@
         <v>31.14500000000004</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -6597,14 +6719,12 @@
         <v>31.1316666666667</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>31</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
@@ -6638,14 +6758,12 @@
         <v>31.11500000000003</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>30.8</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -6679,14 +6797,12 @@
         <v>31.09500000000003</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -6720,14 +6836,12 @@
         <v>31.0816666666667</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>30.6</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -6761,14 +6875,12 @@
         <v>31.06333333333337</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>30.9</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
@@ -6802,14 +6914,12 @@
         <v>31.0416666666667</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>30.9</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -6843,14 +6953,12 @@
         <v>31.0366666666667</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>30.9</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -6884,14 +6992,12 @@
         <v>31.03500000000004</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -6925,14 +7031,12 @@
         <v>31.02500000000004</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>31</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -6966,14 +7070,12 @@
         <v>31.01666666666671</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>31</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -7007,14 +7109,12 @@
         <v>31.01000000000004</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>31.1</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -7048,14 +7148,12 @@
         <v>31.00166666666671</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>31</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
@@ -7089,14 +7187,12 @@
         <v>30.99500000000004</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>31.1</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
@@ -7130,14 +7226,12 @@
         <v>30.99666666666671</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>31.6</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
@@ -7171,14 +7265,12 @@
         <v>30.99833333333337</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>31.6</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
@@ -7212,14 +7304,12 @@
         <v>30.99000000000003</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
@@ -7253,14 +7343,12 @@
         <v>30.9866666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
@@ -7294,14 +7382,12 @@
         <v>30.98333333333337</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>30.9</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -7335,14 +7421,12 @@
         <v>30.98000000000003</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
@@ -7376,14 +7460,12 @@
         <v>30.9766666666667</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
@@ -7417,14 +7499,12 @@
         <v>30.96833333333337</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>31.2</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -7458,14 +7538,12 @@
         <v>30.9666666666667</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>31.2</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -7499,14 +7577,12 @@
         <v>30.96000000000003</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>31</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
@@ -7540,14 +7616,12 @@
         <v>30.9516666666667</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>31</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
@@ -7581,14 +7655,12 @@
         <v>30.94833333333337</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>31.1</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
@@ -7622,14 +7694,12 @@
         <v>30.93833333333337</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>30.9</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
@@ -7663,14 +7733,12 @@
         <v>30.9316666666667</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>31.1</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -7704,14 +7772,12 @@
         <v>30.92833333333336</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>31.1</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
@@ -7745,14 +7811,12 @@
         <v>30.92500000000003</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>31.2</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
@@ -7786,14 +7850,12 @@
         <v>30.9216666666667</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>31.2</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
@@ -7827,14 +7889,12 @@
         <v>30.92333333333336</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -7868,14 +7928,12 @@
         <v>30.93500000000003</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
@@ -7909,14 +7967,12 @@
         <v>30.94333333333336</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
@@ -7950,14 +8006,12 @@
         <v>30.9516666666667</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
@@ -7991,14 +8045,12 @@
         <v>30.96500000000003</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
@@ -8032,14 +8084,12 @@
         <v>30.97000000000003</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
@@ -8073,14 +8123,12 @@
         <v>30.97333333333336</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>31</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
@@ -8114,14 +8162,12 @@
         <v>30.98166666666669</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>31.2</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
@@ -8155,14 +8201,12 @@
         <v>30.98500000000003</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -8196,14 +8240,12 @@
         <v>30.98666666666669</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
@@ -8237,14 +8279,12 @@
         <v>30.99000000000003</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>31.2</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
@@ -8278,14 +8318,12 @@
         <v>30.98833333333336</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>31</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
@@ -8319,14 +8357,12 @@
         <v>30.98833333333336</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>31</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
@@ -8360,14 +8396,12 @@
         <v>30.99333333333336</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>30.8</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
@@ -8401,14 +8435,12 @@
         <v>30.99166666666669</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>30.8</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
@@ -8442,14 +8474,12 @@
         <v>30.99000000000003</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>30.8</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
@@ -8483,14 +8513,12 @@
         <v>31.00000000000003</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
@@ -8524,14 +8552,12 @@
         <v>31.01000000000003</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>31.2</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
@@ -8565,14 +8591,12 @@
         <v>31.01833333333336</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
@@ -8606,14 +8630,12 @@
         <v>31.0266666666667</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>31.3</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -8647,14 +8669,12 @@
         <v>31.03833333333336</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
@@ -8688,14 +8708,12 @@
         <v>31.0516666666667</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -8729,14 +8747,12 @@
         <v>31.06333333333337</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
@@ -8770,14 +8786,12 @@
         <v>31.07833333333337</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>31.5</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
@@ -8811,14 +8825,12 @@
         <v>31.09333333333337</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>31.5</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
@@ -9008,14 +9020,12 @@
         <v>31.15500000000003</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>31.4</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
@@ -9049,14 +9059,12 @@
         <v>31.16333333333337</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>31.5</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
@@ -9090,14 +9098,12 @@
         <v>31.17833333333337</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>31.5</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
@@ -9329,18 +9335,16 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9368,15 +9372,11 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9407,15 +9407,11 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9446,15 +9442,11 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9489,11 +9481,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9528,11 +9516,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9563,15 +9547,11 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9606,11 +9586,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9645,11 +9621,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9684,11 +9656,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9723,11 +9691,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9762,11 +9726,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9801,11 +9761,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9840,11 +9796,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9879,11 +9831,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9918,11 +9866,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9957,11 +9901,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9992,15 +9932,11 @@
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10031,15 +9967,11 @@
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10070,15 +10002,11 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10109,15 +10037,11 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10148,15 +10072,11 @@
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10191,11 +10111,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10230,11 +10146,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10265,15 +10177,11 @@
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10308,11 +10216,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10343,15 +10247,11 @@
         <v>0</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10386,11 +10286,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10425,11 +10321,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10464,11 +10356,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10503,11 +10391,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10542,11 +10426,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10581,11 +10461,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10620,11 +10496,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10659,11 +10531,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10698,11 +10566,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10737,11 +10601,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10776,11 +10636,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10815,11 +10671,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10854,11 +10706,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10893,11 +10741,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10932,11 +10776,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10971,11 +10811,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11010,11 +10846,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11049,11 +10881,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11088,11 +10916,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11127,11 +10951,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11166,11 +10986,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11205,11 +11021,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11244,11 +11056,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11283,11 +11091,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11322,11 +11126,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11361,11 +11161,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11400,11 +11196,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11439,11 +11231,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11474,16 +11262,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11511,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
@@ -11546,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
@@ -11581,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
@@ -11616,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
@@ -11651,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
@@ -11686,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
@@ -12246,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
@@ -12281,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
@@ -12316,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
@@ -12351,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
@@ -12386,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
@@ -12421,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
@@ -12456,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
@@ -12491,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
@@ -12526,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
@@ -12561,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
@@ -12596,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
@@ -12631,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
@@ -12666,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
@@ -12701,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
@@ -12736,7 +12522,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
@@ -12771,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
@@ -12806,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
@@ -13541,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
@@ -13576,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
@@ -13611,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
@@ -14136,7 +13922,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
@@ -14521,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
@@ -14556,7 +14342,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
@@ -14591,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
@@ -14626,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
@@ -14661,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
@@ -14696,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
@@ -14766,7 +14552,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
@@ -14906,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
@@ -14941,7 +14727,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
@@ -15011,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
@@ -15116,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
@@ -15151,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
@@ -15186,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-31 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>2398528.479927054</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2380969.767527054</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2713101.484327054</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2881347.801527054</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2511926.739512459</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2541651.821212459</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2437779.922212459</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2315744.861412459</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2129411.931012459</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2178175.666712459</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2093270.075512459</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2134074.375512459</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2134074.375512459</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2166924.424212459</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2286724.041912459</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2447135.436012459</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2514837.97681246</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2812073.249056115</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2593448.191556115</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2458472.113656115</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2727065.231710385</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2615751.990310385</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>3054197.506510385</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>3221353.589510385</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2998622.605810385</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2821972.290110385</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2821972.290110385</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>3031108.113810385</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>2953320.687910384</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1062718.901021476</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1212366.978221476</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1212366.978221476</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1246672.095021476</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1346645.942321476</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1346645.942321476</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1317852.137921476</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1318511.398721476</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1211483.398721476</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>887185.7578214759</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>716237.4882214759</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>573181.6421214759</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>577783.8710214759</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>577783.8710214759</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>577794.8710214759</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -7249,10 +7249,14 @@
         <v>-1084379.305853904</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="J208" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
@@ -7285,8 +7289,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7328,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7367,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7406,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7445,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +7484,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +7523,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +7562,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7598,19 @@
         <v>-1117268.796153904</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="J217" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7639,19 @@
         <v>-1152235.143553904</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="J218" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7680,19 @@
         <v>-1152235.143553904</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J219" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7721,19 @@
         <v>-1249577.727853904</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J220" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,7 +7762,7 @@
         <v>-1237906.299353904</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>30.7</v>
@@ -7686,7 +7770,11 @@
       <c r="J221" t="n">
         <v>30.7</v>
       </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,15 +7803,17 @@
         <v>-1237906.299353904</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J222" t="n">
         <v>30.7</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L222" t="n">
@@ -7754,15 +7844,17 @@
         <v>-1264602.928853904</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J223" t="n">
         <v>30.7</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L223" t="n">
@@ -7793,7 +7885,7 @@
         <v>-1305331.283953904</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>30.7</v>
@@ -7803,7 +7895,7 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -7834,9 +7926,11 @@
         <v>-1300840.650353904</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J225" t="n">
         <v>30.7</v>
       </c>
@@ -7873,9 +7967,11 @@
         <v>-1315780.114053904</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>30.7</v>
+      </c>
       <c r="J226" t="n">
         <v>30.7</v>
       </c>
@@ -7912,9 +8008,11 @@
         <v>-1315780.114053904</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J227" t="n">
         <v>30.7</v>
       </c>
@@ -7951,9 +8049,11 @@
         <v>-1501459.876053904</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>30.6</v>
+      </c>
       <c r="J228" t="n">
         <v>30.7</v>
       </c>
@@ -7990,9 +8090,11 @@
         <v>-1494771.573853904</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>30.4</v>
+      </c>
       <c r="J229" t="n">
         <v>30.7</v>
       </c>
@@ -8029,7 +8131,7 @@
         <v>-1494771.573853904</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>30.5</v>
@@ -8070,9 +8172,11 @@
         <v>-1494432.558953904</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>30.5</v>
+      </c>
       <c r="J231" t="n">
         <v>30.7</v>
       </c>
@@ -8109,7 +8213,7 @@
         <v>-1494771.573853904</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>30.8</v>
@@ -8150,7 +8254,7 @@
         <v>-1494761.573853904</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>30.5</v>
@@ -8191,7 +8295,7 @@
         <v>-1494771.573853904</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>31</v>
@@ -8232,7 +8336,7 @@
         <v>-1532876.095253904</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>30.8</v>
@@ -8273,7 +8377,7 @@
         <v>-1684133.424653904</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>30.6</v>
@@ -8314,7 +8418,7 @@
         <v>-1683133.424653904</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>30.5</v>
@@ -8355,7 +8459,7 @@
         <v>-1683133.424653904</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>30.9</v>
@@ -8396,7 +8500,7 @@
         <v>-1683133.424653904</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>30.9</v>
@@ -8437,7 +8541,7 @@
         <v>-1678902.136553904</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>30.9</v>
@@ -8478,7 +8582,7 @@
         <v>-1678902.136553904</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>31</v>
@@ -8519,7 +8623,7 @@
         <v>-1678902.136553904</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>31</v>
@@ -8560,7 +8664,7 @@
         <v>-1678802.136553904</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>31</v>
@@ -8601,7 +8705,7 @@
         <v>-1679867.788653904</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>31.1</v>
@@ -8642,9 +8746,11 @@
         <v>-1669055.853553904</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>31</v>
+      </c>
       <c r="J245" t="n">
         <v>30.7</v>
       </c>
@@ -8681,7 +8787,7 @@
         <v>-1666843.511853904</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>31.1</v>
@@ -8722,9 +8828,11 @@
         <v>-1666843.511853904</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J247" t="n">
         <v>30.7</v>
       </c>
@@ -8761,9 +8869,11 @@
         <v>-1686022.399353904</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J248" t="n">
         <v>30.7</v>
       </c>
@@ -8800,9 +8910,11 @@
         <v>-1686002.399353904</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J249" t="n">
         <v>30.7</v>
       </c>
@@ -8839,9 +8951,11 @@
         <v>-1681223.461553904</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>31</v>
+      </c>
       <c r="J250" t="n">
         <v>30.7</v>
       </c>
@@ -8878,9 +8992,11 @@
         <v>-1681223.461553904</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J251" t="n">
         <v>30.7</v>
       </c>
@@ -8917,9 +9033,11 @@
         <v>-1681223.461553904</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J252" t="n">
         <v>30.7</v>
       </c>
@@ -8956,9 +9074,11 @@
         <v>-1708021.053053904</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J253" t="n">
         <v>30.7</v>
       </c>
@@ -8995,9 +9115,11 @@
         <v>-1696242.078753904</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>31</v>
+      </c>
       <c r="J254" t="n">
         <v>30.7</v>
       </c>
@@ -9034,9 +9156,11 @@
         <v>-1710757.440853904</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>31.2</v>
+      </c>
       <c r="J255" t="n">
         <v>30.7</v>
       </c>
@@ -9073,9 +9197,11 @@
         <v>-1735487.712153904</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>31</v>
+      </c>
       <c r="J256" t="n">
         <v>30.7</v>
       </c>
@@ -9112,9 +9238,11 @@
         <v>-1735477.712153904</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J257" t="n">
         <v>30.7</v>
       </c>
@@ -9151,9 +9279,11 @@
         <v>-1737108.294553904</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>31.1</v>
+      </c>
       <c r="J258" t="n">
         <v>30.7</v>
       </c>
@@ -9190,9 +9320,11 @@
         <v>-1720611.711853904</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J259" t="n">
         <v>30.7</v>
       </c>
@@ -9229,9 +9361,11 @@
         <v>-1720611.711853904</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>31.1</v>
+      </c>
       <c r="J260" t="n">
         <v>30.7</v>
       </c>
@@ -9268,9 +9402,11 @@
         <v>-1706761.327253904</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>31.1</v>
+      </c>
       <c r="J261" t="n">
         <v>30.7</v>
       </c>
@@ -9307,9 +9443,11 @@
         <v>-1706761.327253904</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>31.2</v>
+      </c>
       <c r="J262" t="n">
         <v>30.7</v>
       </c>
@@ -9346,9 +9484,11 @@
         <v>-1681180.557453905</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>31.2</v>
+      </c>
       <c r="J263" t="n">
         <v>30.7</v>
       </c>
@@ -9385,9 +9525,11 @@
         <v>-1680969.557453905</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J264" t="n">
         <v>30.7</v>
       </c>
@@ -9424,9 +9566,11 @@
         <v>-1694670.726253905</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J265" t="n">
         <v>30.7</v>
       </c>
@@ -9463,9 +9607,11 @@
         <v>-1694670.726253905</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J266" t="n">
         <v>30.7</v>
       </c>
@@ -9580,9 +9726,11 @@
         <v>-1665490.509853905</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>31.1</v>
+      </c>
       <c r="J269" t="n">
         <v>30.7</v>
       </c>
@@ -9619,9 +9767,11 @@
         <v>-1665639.840853905</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>31.4</v>
+      </c>
       <c r="J270" t="n">
         <v>30.7</v>
       </c>
@@ -9658,9 +9808,11 @@
         <v>-1665617.125253905</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>31.2</v>
+      </c>
       <c r="J271" t="n">
         <v>30.7</v>
       </c>
@@ -9697,9 +9849,11 @@
         <v>-1665617.125253905</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J272" t="n">
         <v>30.7</v>
       </c>
@@ -9736,9 +9890,11 @@
         <v>-1665667.794253905</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J273" t="n">
         <v>30.7</v>
       </c>
@@ -9775,9 +9931,11 @@
         <v>-1669270.182753904</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>31.2</v>
+      </c>
       <c r="J274" t="n">
         <v>30.7</v>
       </c>
@@ -9814,9 +9972,11 @@
         <v>-1687406.773253904</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>31</v>
+      </c>
       <c r="J275" t="n">
         <v>30.7</v>
       </c>
@@ -9853,9 +10013,11 @@
         <v>-1685517.160953905</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J276" t="n">
         <v>30.7</v>
       </c>
@@ -9892,9 +10054,11 @@
         <v>-1697717.713053904</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>31.2</v>
+      </c>
       <c r="J277" t="n">
         <v>30.7</v>
       </c>
@@ -9931,9 +10095,11 @@
         <v>-1778784.379753904</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>30.8</v>
+      </c>
       <c r="J278" t="n">
         <v>30.7</v>
       </c>
@@ -9970,9 +10136,11 @@
         <v>-1778765.335253904</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>30.7</v>
+      </c>
       <c r="J279" t="n">
         <v>30.7</v>
       </c>
@@ -10009,9 +10177,11 @@
         <v>-1779079.641153904</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>31.4</v>
+      </c>
       <c r="J280" t="n">
         <v>30.7</v>
       </c>
@@ -10048,9 +10218,11 @@
         <v>-1779079.641153904</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J281" t="n">
         <v>30.7</v>
       </c>
@@ -10087,9 +10259,11 @@
         <v>-1779079.641153904</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J282" t="n">
         <v>30.7</v>
       </c>
@@ -10126,9 +10300,11 @@
         <v>-1774252.114153904</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J283" t="n">
         <v>30.7</v>
       </c>
@@ -10165,9 +10341,11 @@
         <v>-1774252.114153904</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>31.4</v>
+      </c>
       <c r="J284" t="n">
         <v>30.7</v>
       </c>
@@ -10204,9 +10382,11 @@
         <v>-1774252.114153904</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>31.4</v>
+      </c>
       <c r="J285" t="n">
         <v>30.7</v>
       </c>
@@ -10243,9 +10423,11 @@
         <v>-1764656.939553904</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>31.4</v>
+      </c>
       <c r="J286" t="n">
         <v>30.7</v>
       </c>
@@ -10399,9 +10581,11 @@
         <v>-1842119.254753904</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>31.2</v>
+      </c>
       <c r="J290" t="n">
         <v>30.7</v>
       </c>
@@ -10438,9 +10622,11 @@
         <v>-1842119.254753904</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>31.1</v>
+      </c>
       <c r="J291" t="n">
         <v>30.7</v>
       </c>
@@ -10477,9 +10663,11 @@
         <v>-1841704.254753904</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>31.1</v>
+      </c>
       <c r="J292" t="n">
         <v>30.7</v>
       </c>
@@ -10516,9 +10704,11 @@
         <v>-1841704.254753904</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J293" t="n">
         <v>30.7</v>
       </c>
@@ -10555,9 +10745,11 @@
         <v>-1807763.511353904</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J294" t="n">
         <v>30.7</v>
       </c>
@@ -10594,9 +10786,11 @@
         <v>-1776067.754753904</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>31.7</v>
+      </c>
       <c r="J295" t="n">
         <v>30.7</v>
       </c>
@@ -11140,9 +11334,11 @@
         <v>-1345523.970153904</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>31.7</v>
+      </c>
       <c r="J309" t="n">
         <v>30.7</v>
       </c>
@@ -11179,9 +11375,11 @@
         <v>-1286629.754753904</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>31.6</v>
+      </c>
       <c r="J310" t="n">
         <v>30.7</v>
       </c>
@@ -11218,9 +11416,11 @@
         <v>-1286617.754753904</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>31.9</v>
+      </c>
       <c r="J311" t="n">
         <v>30.7</v>
       </c>
@@ -11881,9 +12081,11 @@
         <v>-1326833.101553904</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>31.2</v>
+      </c>
       <c r="J328" t="n">
         <v>30.7</v>
       </c>
@@ -11920,9 +12122,11 @@
         <v>-1199700.378053904</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>31.2</v>
+      </c>
       <c r="J329" t="n">
         <v>30.7</v>
       </c>
@@ -18199,9 +18403,11 @@
         <v>-1785933.485749426</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>31.7</v>
+      </c>
       <c r="J490" t="n">
         <v>30.7</v>
       </c>
@@ -18277,9 +18483,11 @@
         <v>-1796427.334549426</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>32.2</v>
+      </c>
       <c r="J492" t="n">
         <v>30.7</v>
       </c>
@@ -18316,9 +18524,11 @@
         <v>-1796415.334549426</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>31.8</v>
+      </c>
       <c r="J493" t="n">
         <v>30.7</v>
       </c>
@@ -18840,6 +19050,6 @@
       <c r="M506" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-31 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1552274.772249227</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1552274.772249227</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1544775.600649227</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1542127.086849227</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1479210.649749227</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1487642.520449227</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1623789.552115734</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1470593.827427053</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1470593.827427053</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1732185.916327053</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2194493.341027054</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2398528.479927054</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2134074.375512459</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2134074.375512459</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2166924.424212459</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2286724.041912459</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2447135.436012459</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2514837.97681246</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2812073.249056115</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2593448.191556115</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2458472.113656115</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2727065.231710385</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2615751.990310385</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>3054197.506510385</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2821972.290110385</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2821972.290110385</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>3031108.113810385</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1062718.901021476</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1212366.978221476</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1212366.978221476</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1246672.095021476</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1346645.942321476</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1346645.942321476</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1317852.137921476</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1318511.398721476</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1211483.398721476</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>887185.7578214759</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>716237.4882214759</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>573181.6421214759</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>577783.8710214759</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>577783.8710214759</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>577794.8710214759</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -7249,14 +7249,10 @@
         <v>-1084379.305853904</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J208" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
@@ -7289,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7328,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7367,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7406,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7445,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7484,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7523,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7562,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7598,19 +7546,11 @@
         <v>-1117268.796153904</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J217" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7639,19 +7579,11 @@
         <v>-1152235.143553904</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J218" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7680,19 +7612,11 @@
         <v>-1152235.143553904</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J219" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7721,19 +7645,11 @@
         <v>-1249577.727853904</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J220" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7762,19 +7678,11 @@
         <v>-1237906.299353904</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="J221" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7803,19 +7711,11 @@
         <v>-1237906.299353904</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J222" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7844,19 +7744,11 @@
         <v>-1264602.928853904</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J223" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7890,12 +7782,10 @@
       <c r="I224" t="n">
         <v>30.7</v>
       </c>
-      <c r="J224" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -7931,9 +7821,7 @@
       <c r="I225" t="n">
         <v>30.6</v>
       </c>
-      <c r="J225" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7972,9 +7860,7 @@
       <c r="I226" t="n">
         <v>30.7</v>
       </c>
-      <c r="J226" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8013,9 +7899,7 @@
       <c r="I227" t="n">
         <v>30.6</v>
       </c>
-      <c r="J227" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8054,9 +7938,7 @@
       <c r="I228" t="n">
         <v>30.6</v>
       </c>
-      <c r="J228" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8095,9 +7977,7 @@
       <c r="I229" t="n">
         <v>30.4</v>
       </c>
-      <c r="J229" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8136,9 +8016,7 @@
       <c r="I230" t="n">
         <v>30.5</v>
       </c>
-      <c r="J230" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8177,9 +8055,7 @@
       <c r="I231" t="n">
         <v>30.5</v>
       </c>
-      <c r="J231" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8218,9 +8094,7 @@
       <c r="I232" t="n">
         <v>30.8</v>
       </c>
-      <c r="J232" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8259,9 +8133,7 @@
       <c r="I233" t="n">
         <v>30.5</v>
       </c>
-      <c r="J233" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8300,9 +8172,7 @@
       <c r="I234" t="n">
         <v>31</v>
       </c>
-      <c r="J234" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8341,9 +8211,7 @@
       <c r="I235" t="n">
         <v>30.8</v>
       </c>
-      <c r="J235" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8382,9 +8250,7 @@
       <c r="I236" t="n">
         <v>30.6</v>
       </c>
-      <c r="J236" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8423,9 +8289,7 @@
       <c r="I237" t="n">
         <v>30.5</v>
       </c>
-      <c r="J237" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8464,9 +8328,7 @@
       <c r="I238" t="n">
         <v>30.9</v>
       </c>
-      <c r="J238" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8505,9 +8367,7 @@
       <c r="I239" t="n">
         <v>30.9</v>
       </c>
-      <c r="J239" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8546,9 +8406,7 @@
       <c r="I240" t="n">
         <v>30.9</v>
       </c>
-      <c r="J240" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8587,9 +8445,7 @@
       <c r="I241" t="n">
         <v>31</v>
       </c>
-      <c r="J241" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8628,9 +8484,7 @@
       <c r="I242" t="n">
         <v>31</v>
       </c>
-      <c r="J242" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8669,9 +8523,7 @@
       <c r="I243" t="n">
         <v>31</v>
       </c>
-      <c r="J243" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8710,9 +8562,7 @@
       <c r="I244" t="n">
         <v>31.1</v>
       </c>
-      <c r="J244" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8751,9 +8601,7 @@
       <c r="I245" t="n">
         <v>31</v>
       </c>
-      <c r="J245" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8792,9 +8640,7 @@
       <c r="I246" t="n">
         <v>31.1</v>
       </c>
-      <c r="J246" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8828,14 +8674,10 @@
         <v>-1666843.511853904</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J247" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,14 +8711,10 @@
         <v>-1686022.399353904</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J248" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8910,14 +8748,10 @@
         <v>-1686002.399353904</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="J249" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8951,14 +8785,10 @@
         <v>-1681223.461553904</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>31</v>
-      </c>
-      <c r="J250" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8992,14 +8822,10 @@
         <v>-1681223.461553904</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J251" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9033,14 +8859,10 @@
         <v>-1681223.461553904</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J252" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9074,14 +8896,10 @@
         <v>-1708021.053053904</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J253" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9115,14 +8933,10 @@
         <v>-1696242.078753904</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>31</v>
-      </c>
-      <c r="J254" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9156,14 +8970,10 @@
         <v>-1710757.440853904</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J255" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9197,14 +9007,10 @@
         <v>-1735487.712153904</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>31</v>
-      </c>
-      <c r="J256" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9243,9 +9049,7 @@
       <c r="I257" t="n">
         <v>30.9</v>
       </c>
-      <c r="J257" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9284,9 +9088,7 @@
       <c r="I258" t="n">
         <v>31.1</v>
       </c>
-      <c r="J258" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9325,9 +9127,7 @@
       <c r="I259" t="n">
         <v>30.9</v>
       </c>
-      <c r="J259" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9366,9 +9166,7 @@
       <c r="I260" t="n">
         <v>31.1</v>
       </c>
-      <c r="J260" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9407,9 +9205,7 @@
       <c r="I261" t="n">
         <v>31.1</v>
       </c>
-      <c r="J261" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9448,9 +9244,7 @@
       <c r="I262" t="n">
         <v>31.2</v>
       </c>
-      <c r="J262" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9489,9 +9283,7 @@
       <c r="I263" t="n">
         <v>31.2</v>
       </c>
-      <c r="J263" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9530,9 +9322,7 @@
       <c r="I264" t="n">
         <v>31.3</v>
       </c>
-      <c r="J264" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9571,9 +9361,7 @@
       <c r="I265" t="n">
         <v>31.5</v>
       </c>
-      <c r="J265" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9612,9 +9400,7 @@
       <c r="I266" t="n">
         <v>31.3</v>
       </c>
-      <c r="J266" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9648,12 +9434,12 @@
         <v>-1694548.579253905</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9687,12 +9473,12 @@
         <v>-1705500.509853905</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9731,9 +9517,7 @@
       <c r="I269" t="n">
         <v>31.1</v>
       </c>
-      <c r="J269" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9772,9 +9556,7 @@
       <c r="I270" t="n">
         <v>31.4</v>
       </c>
-      <c r="J270" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9813,9 +9595,7 @@
       <c r="I271" t="n">
         <v>31.2</v>
       </c>
-      <c r="J271" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9854,9 +9634,7 @@
       <c r="I272" t="n">
         <v>31.3</v>
       </c>
-      <c r="J272" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9895,9 +9673,7 @@
       <c r="I273" t="n">
         <v>31.3</v>
       </c>
-      <c r="J273" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9936,9 +9712,7 @@
       <c r="I274" t="n">
         <v>31.2</v>
       </c>
-      <c r="J274" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9977,9 +9751,7 @@
       <c r="I275" t="n">
         <v>31</v>
       </c>
-      <c r="J275" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10018,9 +9790,7 @@
       <c r="I276" t="n">
         <v>30.9</v>
       </c>
-      <c r="J276" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10059,9 +9829,7 @@
       <c r="I277" t="n">
         <v>31.2</v>
       </c>
-      <c r="J277" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10100,9 +9868,7 @@
       <c r="I278" t="n">
         <v>30.8</v>
       </c>
-      <c r="J278" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10141,9 +9907,7 @@
       <c r="I279" t="n">
         <v>30.7</v>
       </c>
-      <c r="J279" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10182,9 +9946,7 @@
       <c r="I280" t="n">
         <v>31.4</v>
       </c>
-      <c r="J280" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10223,9 +9985,7 @@
       <c r="I281" t="n">
         <v>31.3</v>
       </c>
-      <c r="J281" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10264,9 +10024,7 @@
       <c r="I282" t="n">
         <v>31.3</v>
       </c>
-      <c r="J282" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10305,9 +10063,7 @@
       <c r="I283" t="n">
         <v>31.3</v>
       </c>
-      <c r="J283" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10346,9 +10102,7 @@
       <c r="I284" t="n">
         <v>31.4</v>
       </c>
-      <c r="J284" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10387,9 +10141,7 @@
       <c r="I285" t="n">
         <v>31.4</v>
       </c>
-      <c r="J285" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10428,9 +10180,7 @@
       <c r="I286" t="n">
         <v>31.4</v>
       </c>
-      <c r="J286" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10464,12 +10214,12 @@
         <v>-1764656.939553904</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10503,12 +10253,12 @@
         <v>-1764656.939553904</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10542,12 +10292,12 @@
         <v>-1765080.152853904</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10586,9 +10336,7 @@
       <c r="I290" t="n">
         <v>31.2</v>
       </c>
-      <c r="J290" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10627,9 +10375,7 @@
       <c r="I291" t="n">
         <v>31.1</v>
       </c>
-      <c r="J291" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10668,9 +10414,7 @@
       <c r="I292" t="n">
         <v>31.1</v>
       </c>
-      <c r="J292" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10709,9 +10453,7 @@
       <c r="I293" t="n">
         <v>31.5</v>
       </c>
-      <c r="J293" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10750,9 +10492,7 @@
       <c r="I294" t="n">
         <v>31.5</v>
       </c>
-      <c r="J294" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10791,9 +10531,7 @@
       <c r="I295" t="n">
         <v>31.7</v>
       </c>
-      <c r="J295" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10830,9 +10568,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10869,9 +10605,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10908,9 +10642,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10947,9 +10679,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10986,9 +10716,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11025,9 +10753,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11064,9 +10790,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11103,9 +10827,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11142,9 +10864,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11181,9 +10901,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11220,9 +10938,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11259,9 +10975,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11298,9 +11012,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11334,14 +11046,10 @@
         <v>-1345523.970153904</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J309" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11375,14 +11083,10 @@
         <v>-1286629.754753904</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J310" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11416,14 +11120,10 @@
         <v>-1286617.754753904</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="J311" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11460,9 +11160,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11499,9 +11197,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11538,9 +11234,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11577,9 +11271,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11616,9 +11308,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11655,9 +11345,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11694,9 +11382,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11733,9 +11419,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11772,9 +11456,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11811,9 +11493,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11850,9 +11530,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11889,9 +11567,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11928,9 +11604,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11967,9 +11641,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12006,9 +11678,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12045,9 +11715,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12081,14 +11749,10 @@
         <v>-1326833.101553904</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J328" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12122,14 +11786,10 @@
         <v>-1199700.378053904</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J329" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12166,9 +11826,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12205,9 +11863,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12244,9 +11900,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12283,9 +11937,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12322,9 +11974,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12361,9 +12011,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12400,9 +12048,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12439,9 +12085,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12475,12 +12119,12 @@
         <v>-1148149.702253904</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12517,9 +12161,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12556,9 +12198,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12595,9 +12235,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12631,12 +12269,12 @@
         <v>-1168176.160153904</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12673,9 +12311,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12712,9 +12348,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12751,9 +12385,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12790,9 +12422,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12829,9 +12459,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12868,9 +12496,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12907,9 +12533,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12946,9 +12570,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12985,9 +12607,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13024,9 +12644,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13063,9 +12681,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13102,9 +12718,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13141,9 +12755,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13180,9 +12792,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13219,9 +12829,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13258,9 +12866,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13297,9 +12903,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13336,9 +12940,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13375,9 +12977,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13414,9 +13014,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13453,9 +13051,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13492,9 +13088,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13531,9 +13125,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13570,9 +13162,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13609,9 +13199,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13648,9 +13236,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13687,9 +13273,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13726,9 +13310,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13765,9 +13347,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13804,9 +13384,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13843,9 +13421,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13882,9 +13458,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13921,9 +13495,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13960,9 +13532,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13999,9 +13569,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14038,9 +13606,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14077,9 +13643,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14116,9 +13680,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14155,9 +13717,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14194,9 +13754,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14233,9 +13791,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14272,9 +13828,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14311,9 +13865,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14350,9 +13902,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14389,9 +13939,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14428,9 +13976,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14467,9 +14013,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14506,9 +14050,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14545,9 +14087,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14584,9 +14124,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14623,9 +14161,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14662,9 +14198,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14701,9 +14235,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14740,9 +14272,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14779,9 +14309,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14818,9 +14346,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14857,9 +14383,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14896,9 +14420,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14935,9 +14457,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14974,9 +14494,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15013,9 +14531,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15052,9 +14568,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15091,9 +14605,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15130,9 +14642,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15169,9 +14679,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15208,9 +14716,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15247,9 +14753,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15286,9 +14790,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15325,9 +14827,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15361,12 +14861,12 @@
         <v>-1652560.615053904</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15400,12 +14900,12 @@
         <v>-1652560.615053904</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15442,9 +14942,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15481,9 +14979,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15520,9 +15016,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15559,9 +15053,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15598,9 +15090,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15637,9 +15127,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15676,9 +15164,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15715,9 +15201,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15751,12 +15235,12 @@
         <v>-1729364.445253904</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15793,9 +15277,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15832,9 +15314,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15871,9 +15351,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15910,9 +15388,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15949,9 +15425,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15988,9 +15462,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16027,9 +15499,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16066,9 +15536,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16105,9 +15573,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16144,9 +15610,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16183,9 +15647,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16222,9 +15684,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16261,9 +15721,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16300,9 +15758,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16339,9 +15795,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16378,9 +15832,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16417,9 +15869,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16456,9 +15906,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16495,9 +15943,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16534,9 +15980,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16573,9 +16017,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16612,9 +16054,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16651,9 +16091,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16690,9 +16128,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16729,9 +16165,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16768,9 +16202,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16807,9 +16239,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16846,9 +16276,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16885,9 +16313,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16924,9 +16350,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16963,9 +16387,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17002,9 +16424,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17041,9 +16461,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17080,9 +16498,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17119,9 +16535,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17158,9 +16572,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17197,9 +16609,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17236,9 +16646,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17275,9 +16683,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17314,9 +16720,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17353,9 +16757,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17392,9 +16794,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17431,9 +16831,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17470,9 +16868,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17509,9 +16905,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17548,9 +16942,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17587,9 +16979,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17626,9 +17016,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17665,9 +17053,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17704,9 +17090,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17743,9 +17127,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17782,9 +17164,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17821,9 +17201,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17860,9 +17238,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17899,9 +17275,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17938,9 +17312,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17977,9 +17349,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18016,9 +17386,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18055,9 +17423,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18094,9 +17460,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18133,9 +17497,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18172,9 +17534,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18211,9 +17571,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18250,9 +17608,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18289,9 +17645,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18328,9 +17682,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18364,12 +17716,12 @@
         <v>-1785943.485749426</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18408,9 +17760,7 @@
       <c r="I490" t="n">
         <v>31.7</v>
       </c>
-      <c r="J490" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18444,12 +17794,12 @@
         <v>-1785923.485749426</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>32</v>
+      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18488,9 +17838,7 @@
       <c r="I492" t="n">
         <v>32.2</v>
       </c>
-      <c r="J492" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18529,9 +17877,7 @@
       <c r="I493" t="n">
         <v>31.8</v>
       </c>
-      <c r="J493" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18565,12 +17911,12 @@
         <v>-1787532.757949426</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18604,12 +17950,12 @@
         <v>-1787532.757949426</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18643,12 +17989,12 @@
         <v>-1787517.757949426</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18682,12 +18028,12 @@
         <v>-1713253.079149426</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18724,9 +18070,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18760,12 +18104,12 @@
         <v>-1647109.389049426</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>30.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18802,9 +18146,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18841,9 +18183,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18880,9 +18220,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18919,9 +18257,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18958,9 +18294,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18997,9 +18331,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19036,9 +18368,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>30.7</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19050,6 +18380,6 @@
       <c r="M506" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest ETZ.xlsx
+++ b/BackTest/2019-10-31 BackTest ETZ.xlsx
@@ -451,7 +451,7 @@
         <v>1552274.772249227</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1552274.772249227</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1544775.600649227</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1542127.086849227</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1479210.649749227</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1487642.520449227</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1623789.552115734</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1470593.827427053</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1470593.827427053</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1732185.916327053</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2194493.341027054</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2398528.479927054</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2881347.801527054</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2511926.739512459</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2541651.821212459</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2437779.922212459</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2315744.861412459</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2129411.931012459</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2178175.666712459</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2093270.075512459</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2812073.249056115</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2593448.191556115</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2615751.990310385</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>3054197.506510385</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3031108.113810385</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3021075.113810385</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>2953320.687910384</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>2710736.687910384</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>2748360.943766931</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1697801.547966931</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1697811.547966931</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -7777,17 +7777,11 @@
         <v>-1305331.283953904</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7816,17 +7810,11 @@
         <v>-1300840.650353904</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>30.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7860,12 +7848,10 @@
       <c r="I226" t="n">
         <v>30.7</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7899,10 +7885,12 @@
       <c r="I227" t="n">
         <v>30.6</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L227" t="n">
@@ -7938,10 +7926,12 @@
       <c r="I228" t="n">
         <v>30.6</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L228" t="n">
@@ -7977,7 +7967,9 @@
       <c r="I229" t="n">
         <v>30.4</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8016,7 +8008,9 @@
       <c r="I230" t="n">
         <v>30.5</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8055,7 +8049,9 @@
       <c r="I231" t="n">
         <v>30.5</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,7 +8090,9 @@
       <c r="I232" t="n">
         <v>30.8</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8133,7 +8131,9 @@
       <c r="I233" t="n">
         <v>30.5</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8172,7 +8172,9 @@
       <c r="I234" t="n">
         <v>31</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8211,7 +8213,9 @@
       <c r="I235" t="n">
         <v>30.8</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8250,7 +8254,9 @@
       <c r="I236" t="n">
         <v>30.6</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,7 +8295,9 @@
       <c r="I237" t="n">
         <v>30.5</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8328,7 +8336,9 @@
       <c r="I238" t="n">
         <v>30.9</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8367,7 +8377,9 @@
       <c r="I239" t="n">
         <v>30.9</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8406,7 +8418,9 @@
       <c r="I240" t="n">
         <v>30.9</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8445,7 +8459,9 @@
       <c r="I241" t="n">
         <v>31</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,7 +8500,9 @@
       <c r="I242" t="n">
         <v>31</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8523,7 +8541,9 @@
       <c r="I243" t="n">
         <v>31</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8562,7 +8582,9 @@
       <c r="I244" t="n">
         <v>31.1</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8601,7 +8623,9 @@
       <c r="I245" t="n">
         <v>31</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8640,7 +8664,9 @@
       <c r="I246" t="n">
         <v>31.1</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8674,10 +8700,14 @@
         <v>-1666843.511853904</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="J247" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8711,10 +8741,14 @@
         <v>-1686022.399353904</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="J248" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8748,10 +8782,14 @@
         <v>-1686002.399353904</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="J249" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8785,10 +8823,14 @@
         <v>-1681223.461553904</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>31</v>
+      </c>
+      <c r="J250" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8822,10 +8864,14 @@
         <v>-1681223.461553904</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J251" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8859,10 +8905,14 @@
         <v>-1681223.461553904</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J252" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8896,10 +8946,14 @@
         <v>-1708021.053053904</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="J253" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8933,10 +8987,14 @@
         <v>-1696242.078753904</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>31</v>
+      </c>
+      <c r="J254" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8970,10 +9028,14 @@
         <v>-1710757.440853904</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="J255" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9007,10 +9069,14 @@
         <v>-1735487.712153904</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>31</v>
+      </c>
+      <c r="J256" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9049,7 +9115,9 @@
       <c r="I257" t="n">
         <v>30.9</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9088,7 +9156,9 @@
       <c r="I258" t="n">
         <v>31.1</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9127,7 +9197,9 @@
       <c r="I259" t="n">
         <v>30.9</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9166,7 +9238,9 @@
       <c r="I260" t="n">
         <v>31.1</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9205,7 +9279,9 @@
       <c r="I261" t="n">
         <v>31.1</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9244,7 +9320,9 @@
       <c r="I262" t="n">
         <v>31.2</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9283,7 +9361,9 @@
       <c r="I263" t="n">
         <v>31.2</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9322,7 +9402,9 @@
       <c r="I264" t="n">
         <v>31.3</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9361,7 +9443,9 @@
       <c r="I265" t="n">
         <v>31.5</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9400,7 +9484,9 @@
       <c r="I266" t="n">
         <v>31.3</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9439,7 +9525,9 @@
       <c r="I267" t="n">
         <v>31.3</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9478,7 +9566,9 @@
       <c r="I268" t="n">
         <v>31.5</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9517,7 +9607,9 @@
       <c r="I269" t="n">
         <v>31.1</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9556,7 +9648,9 @@
       <c r="I270" t="n">
         <v>31.4</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9595,7 +9689,9 @@
       <c r="I271" t="n">
         <v>31.2</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9634,7 +9730,9 @@
       <c r="I272" t="n">
         <v>31.3</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9673,7 +9771,9 @@
       <c r="I273" t="n">
         <v>31.3</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9712,7 +9812,9 @@
       <c r="I274" t="n">
         <v>31.2</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9751,7 +9853,9 @@
       <c r="I275" t="n">
         <v>31</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9790,7 +9894,9 @@
       <c r="I276" t="n">
         <v>30.9</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9829,7 +9935,9 @@
       <c r="I277" t="n">
         <v>31.2</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9868,7 +9976,9 @@
       <c r="I278" t="n">
         <v>30.8</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9907,7 +10017,9 @@
       <c r="I279" t="n">
         <v>30.7</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9946,7 +10058,9 @@
       <c r="I280" t="n">
         <v>31.4</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9985,7 +10099,9 @@
       <c r="I281" t="n">
         <v>31.3</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10024,7 +10140,9 @@
       <c r="I282" t="n">
         <v>31.3</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10063,7 +10181,9 @@
       <c r="I283" t="n">
         <v>31.3</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10102,7 +10222,9 @@
       <c r="I284" t="n">
         <v>31.4</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10141,7 +10263,9 @@
       <c r="I285" t="n">
         <v>31.4</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10180,7 +10304,9 @@
       <c r="I286" t="n">
         <v>31.4</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10219,7 +10345,9 @@
       <c r="I287" t="n">
         <v>31.5</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10258,7 +10386,9 @@
       <c r="I288" t="n">
         <v>31.5</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10297,7 +10427,9 @@
       <c r="I289" t="n">
         <v>31.5</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10336,7 +10468,9 @@
       <c r="I290" t="n">
         <v>31.2</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10375,7 +10509,9 @@
       <c r="I291" t="n">
         <v>31.1</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10414,7 +10550,9 @@
       <c r="I292" t="n">
         <v>31.1</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10453,7 +10591,9 @@
       <c r="I293" t="n">
         <v>31.5</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10492,7 +10632,9 @@
       <c r="I294" t="n">
         <v>31.5</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10531,7 +10673,9 @@
       <c r="I295" t="n">
         <v>31.7</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10565,10 +10709,14 @@
         <v>-1776067.754753904</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J296" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10602,10 +10750,14 @@
         <v>-1605323.918453904</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J297" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10642,7 +10794,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10679,7 +10833,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10716,7 +10872,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10753,7 +10911,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10790,7 +10950,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10827,7 +10989,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10864,7 +11028,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10901,7 +11067,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10938,7 +11106,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10975,7 +11145,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11012,7 +11184,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11049,7 +11223,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11086,7 +11262,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11123,7 +11301,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11160,7 +11340,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11197,7 +11379,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11234,7 +11418,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11271,7 +11457,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11308,7 +11496,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11345,7 +11535,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11382,7 +11574,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11419,7 +11613,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11456,7 +11652,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11493,7 +11691,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11530,7 +11730,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11567,7 +11769,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11604,7 +11808,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11641,7 +11847,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11678,7 +11886,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11715,7 +11925,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11752,7 +11964,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11789,7 +12003,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11826,7 +12042,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11863,7 +12081,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11900,7 +12120,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11937,7 +12159,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11974,7 +12198,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12011,7 +12237,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12048,7 +12276,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12085,7 +12315,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12119,12 +12351,12 @@
         <v>-1148149.702253904</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12161,7 +12393,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12198,7 +12432,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12235,7 +12471,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12269,12 +12507,12 @@
         <v>-1168176.160153904</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12311,7 +12549,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12348,7 +12588,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12385,7 +12627,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12422,7 +12666,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12459,7 +12705,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12496,7 +12744,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12533,7 +12783,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12570,7 +12822,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12607,7 +12861,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12644,7 +12900,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12681,7 +12939,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12718,7 +12978,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12755,7 +13017,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12792,7 +13056,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12829,7 +13095,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12866,7 +13134,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12903,7 +13173,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12940,7 +13212,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12977,7 +13251,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13014,7 +13290,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13051,7 +13329,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13088,7 +13368,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13125,7 +13407,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13162,7 +13446,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13199,7 +13485,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13236,7 +13524,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13273,7 +13563,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13310,7 +13602,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13347,7 +13641,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13384,7 +13680,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13421,7 +13719,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13458,7 +13758,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13495,7 +13797,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13532,7 +13836,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13569,7 +13875,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13606,7 +13914,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13643,7 +13953,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13680,7 +13992,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13717,7 +14031,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13754,7 +14070,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13791,7 +14109,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13828,7 +14148,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13865,7 +14187,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13902,7 +14226,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13939,7 +14265,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13976,7 +14304,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14013,7 +14343,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14050,7 +14382,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14087,7 +14421,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14124,7 +14460,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14161,7 +14499,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14198,7 +14538,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14235,7 +14577,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14272,7 +14616,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14309,7 +14655,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14346,7 +14694,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14383,7 +14733,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14420,7 +14772,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14457,7 +14811,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14494,7 +14850,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14531,7 +14889,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14568,7 +14928,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14605,7 +14967,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14642,7 +15006,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14679,7 +15045,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14716,7 +15084,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14753,7 +15123,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14790,7 +15162,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14827,7 +15201,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14861,12 +15237,12 @@
         <v>-1652560.615053904</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="J412" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14900,12 +15276,12 @@
         <v>-1652560.615053904</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="J413" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14942,7 +15318,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14979,7 +15357,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15016,7 +15396,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15053,7 +15435,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15090,7 +15474,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15127,7 +15513,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15164,7 +15552,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15201,7 +15591,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15235,12 +15627,12 @@
         <v>-1729364.445253904</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J422" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15277,7 +15669,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15314,7 +15708,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15351,7 +15747,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15388,7 +15786,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15425,7 +15825,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15462,7 +15864,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15499,7 +15903,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15536,7 +15942,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15573,7 +15981,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15610,7 +16020,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15647,7 +16059,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15684,7 +16098,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15721,7 +16137,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15758,7 +16176,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15795,7 +16215,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15832,7 +16254,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15869,7 +16293,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15906,7 +16332,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15943,7 +16371,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15980,7 +16410,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16017,7 +16449,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16054,7 +16488,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16091,7 +16527,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16128,7 +16566,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16165,7 +16605,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16202,7 +16644,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16239,7 +16683,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16276,7 +16722,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16313,7 +16761,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16350,7 +16800,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16387,7 +16839,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16424,7 +16878,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16461,7 +16917,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16498,7 +16956,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16535,7 +16995,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16572,7 +17034,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16609,7 +17073,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16646,7 +17112,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16683,7 +17151,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16720,7 +17190,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16757,7 +17229,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16794,7 +17268,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16831,7 +17307,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16868,7 +17346,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16905,7 +17385,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16942,7 +17424,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16979,7 +17463,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17016,7 +17502,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17053,7 +17541,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17090,7 +17580,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17127,7 +17619,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17164,7 +17658,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17201,7 +17697,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17238,7 +17736,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17275,7 +17775,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17312,7 +17814,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17349,7 +17853,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17386,7 +17892,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17423,7 +17931,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17460,7 +17970,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17497,7 +18009,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17534,7 +18048,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17571,7 +18087,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17608,7 +18126,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17645,7 +18165,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17682,7 +18204,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17716,12 +18240,12 @@
         <v>-1785943.485749426</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J489" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17755,12 +18279,12 @@
         <v>-1785933.485749426</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J490" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17794,12 +18318,12 @@
         <v>-1785923.485749426</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>32</v>
-      </c>
-      <c r="J491" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17833,12 +18357,12 @@
         <v>-1796427.334549426</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="J492" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17872,12 +18396,12 @@
         <v>-1796415.334549426</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="J493" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17911,12 +18435,12 @@
         <v>-1787532.757949426</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="J494" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17950,12 +18474,12 @@
         <v>-1787532.757949426</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="J495" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17989,12 +18513,12 @@
         <v>-1787517.757949426</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="J496" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18028,12 +18552,12 @@
         <v>-1713253.079149426</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="J497" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18070,7 +18594,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18104,12 +18630,12 @@
         <v>-1647109.389049426</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="J499" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18146,7 +18672,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18183,7 +18711,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18220,7 +18750,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18257,7 +18789,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18294,7 +18828,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18331,7 +18867,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18368,7 +18906,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>30.7</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
